--- a/data2019/master_bothassays.xlsx
+++ b/data2019/master_bothassays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisarosenthal/Box/Competency project/competency.git/data2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3405A5C-7488-7147-948D-FD2E22798BD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8449F8A1-AE18-9449-AB96-3F763AF9C6D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="-4020" windowWidth="25600" windowHeight="20000" xr2:uid="{A76F92BD-BCFB-5343-B244-DAB25E6FE268}"/>
   </bookViews>
@@ -4363,11 +4363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCE57EC-029C-1045-9B03-14F4EFD065BE}">
-  <dimension ref="A1:V1201"/>
+  <dimension ref="A1:T1201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <pane ySplit="1" topLeftCell="A882" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X1075" sqref="X1075"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60186,7 +60186,7 @@
         <v>0.65582041165113869</v>
       </c>
     </row>
-    <row r="1073" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1073" s="10">
         <v>632</v>
       </c>
@@ -60233,7 +60233,7 @@
         <v>0.44076448879677388</v>
       </c>
     </row>
-    <row r="1074" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1074" s="10">
         <v>633</v>
       </c>
@@ -60280,7 +60280,7 @@
         <v>0.61102468174243951</v>
       </c>
     </row>
-    <row r="1075" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1075" s="10">
         <v>633</v>
       </c>
@@ -60327,7 +60327,7 @@
         <v>0.58216239235004597</v>
       </c>
     </row>
-    <row r="1076" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1076" s="10">
         <v>634</v>
       </c>
@@ -60374,7 +60374,7 @@
         <v>0.71481966567723032</v>
       </c>
     </row>
-    <row r="1077" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1077" s="10">
         <v>634</v>
       </c>
@@ -60421,7 +60421,7 @@
         <v>0.6732106238717922</v>
       </c>
     </row>
-    <row r="1078" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1078" s="10">
         <v>635</v>
       </c>
@@ -60468,7 +60468,7 @@
         <v>0.4695357299576457</v>
       </c>
     </row>
-    <row r="1079" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1079" s="10">
         <v>635</v>
       </c>
@@ -60515,7 +60515,7 @@
         <v>0.34844158203372311</v>
       </c>
     </row>
-    <row r="1080" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1080" s="10">
         <v>636</v>
       </c>
@@ -60556,13 +60556,14 @@
         <v>1260</v>
       </c>
       <c r="P1080">
-        <v>103.63733618614603</v>
+        <v>72.757731958762889</v>
       </c>
       <c r="Q1080">
-        <v>0.34042933765980943</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.5294986018223341</v>
+      </c>
+      <c r="S1080"/>
+    </row>
+    <row r="1081" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1081" s="10">
         <v>636</v>
       </c>
@@ -60603,13 +60604,14 @@
         <v>1</v>
       </c>
       <c r="P1081">
-        <v>77.205882352941174</v>
+        <v>40.845528455284551</v>
       </c>
       <c r="Q1081">
-        <v>0.81724892613919486</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.55952171842050769</v>
+      </c>
+      <c r="S1081"/>
+    </row>
+    <row r="1082" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1082" s="10">
         <v>637</v>
       </c>
@@ -60656,7 +60658,7 @@
         <v>0.34953416081198407</v>
       </c>
     </row>
-    <row r="1083" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1083" s="10">
         <v>637</v>
       </c>
@@ -60703,7 +60705,7 @@
         <v>0.32595266884785179</v>
       </c>
     </row>
-    <row r="1084" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1084" s="10">
         <v>638</v>
       </c>
@@ -60750,7 +60752,7 @@
         <v>0.54656253382504305</v>
       </c>
     </row>
-    <row r="1085" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1085" s="10">
         <v>638</v>
       </c>
@@ -60797,7 +60799,7 @@
         <v>0.61020524765874373</v>
       </c>
     </row>
-    <row r="1086" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1086" s="10">
         <v>639</v>
       </c>
@@ -60844,7 +60846,7 @@
         <v>0.57114555633591457</v>
       </c>
     </row>
-    <row r="1087" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1087" s="10">
         <v>639</v>
       </c>
@@ -60891,7 +60893,7 @@
         <v>0.51369412224569266</v>
       </c>
     </row>
-    <row r="1088" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1088" s="10">
         <v>640</v>
       </c>

--- a/data2019/master_bothassays.xlsx
+++ b/data2019/master_bothassays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisarosenthal/Box/Competency project/competency.git/data2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C384C562-58B3-814B-9B32-4623321259CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534015F7-7145-F547-A986-6B4614CF40A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" xr2:uid="{A76F92BD-BCFB-5343-B244-DAB25E6FE268}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9467" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9499" uniqueCount="1306">
   <si>
     <t>leafID</t>
   </si>
@@ -3949,6 +3949,9 @@
   </si>
   <si>
     <t>asymp</t>
+  </si>
+  <si>
+    <t>CONTROL</t>
   </si>
 </sst>
 </file>
@@ -4366,12 +4369,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCE57EC-029C-1045-9B03-14F4EFD065BE}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U1201"/>
+  <dimension ref="A1:U1209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1135" sqref="F1135"/>
+      <pane ySplit="1" topLeftCell="A1186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1206" sqref="S1206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4451,7 +4453,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4554,7 +4556,7 @@
         <v>1.22718463031</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4660,7 +4662,7 @@
         <v>1.22718463031</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -4766,7 +4768,7 @@
         <v>1.22718463031</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -4872,7 +4874,7 @@
         <v>1.22718463031</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -4980,7 +4982,7 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>6</v>
       </c>
@@ -5093,7 +5095,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>7</v>
       </c>
@@ -5203,7 +5205,7 @@
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>8</v>
       </c>
@@ -5313,7 +5315,7 @@
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>9</v>
       </c>
@@ -5423,7 +5425,7 @@
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>10</v>
       </c>
@@ -5530,7 +5532,7 @@
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>11</v>
       </c>
@@ -5640,7 +5642,7 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>12</v>
       </c>
@@ -5750,7 +5752,7 @@
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>13</v>
       </c>
@@ -5860,7 +5862,7 @@
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>14</v>
       </c>
@@ -5970,7 +5972,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>15</v>
       </c>
@@ -6080,7 +6082,7 @@
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>16</v>
       </c>
@@ -6190,7 +6192,7 @@
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>17</v>
       </c>
@@ -6300,7 +6302,7 @@
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>18</v>
       </c>
@@ -6410,7 +6412,7 @@
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>19</v>
       </c>
@@ -6520,7 +6522,7 @@
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>20</v>
       </c>
@@ -6630,7 +6632,7 @@
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>21</v>
       </c>
@@ -6740,7 +6742,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>22</v>
       </c>
@@ -6850,7 +6852,7 @@
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>23</v>
       </c>
@@ -6966,7 +6968,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>24</v>
       </c>
@@ -7076,7 +7078,7 @@
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>25</v>
       </c>
@@ -7186,7 +7188,7 @@
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>26</v>
       </c>
@@ -7302,7 +7304,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>27</v>
       </c>
@@ -7415,7 +7417,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>28</v>
       </c>
@@ -7528,7 +7530,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>29</v>
       </c>
@@ -7638,7 +7640,7 @@
       <c r="R59" s="12"/>
       <c r="S59" s="12"/>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>30</v>
       </c>
@@ -7748,7 +7750,7 @@
       <c r="R61" s="12"/>
       <c r="S61" s="12"/>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>31</v>
       </c>
@@ -7858,7 +7860,7 @@
       <c r="R63" s="12"/>
       <c r="S63" s="12"/>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>32</v>
       </c>
@@ -7968,7 +7970,7 @@
       <c r="R65" s="12"/>
       <c r="S65" s="12"/>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>33</v>
       </c>
@@ -8072,7 +8074,7 @@
       <c r="R67" s="12"/>
       <c r="S67" s="12"/>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
         <v>34</v>
       </c>
@@ -8176,7 +8178,7 @@
       <c r="R69" s="12"/>
       <c r="S69" s="12"/>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>35</v>
       </c>
@@ -8280,7 +8282,7 @@
       <c r="R71" s="12"/>
       <c r="S71" s="12"/>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>36</v>
       </c>
@@ -8384,7 +8386,7 @@
       <c r="R73" s="12"/>
       <c r="S73" s="12"/>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>37</v>
       </c>
@@ -8494,7 +8496,7 @@
       <c r="R75" s="12"/>
       <c r="S75" s="12"/>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
         <v>38</v>
       </c>
@@ -8604,7 +8606,7 @@
       <c r="R77" s="12"/>
       <c r="S77" s="12"/>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>39</v>
       </c>
@@ -8714,7 +8716,7 @@
       <c r="R79" s="12"/>
       <c r="S79" s="12"/>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
         <v>40</v>
       </c>
@@ -8824,7 +8826,7 @@
       <c r="R81" s="12"/>
       <c r="S81" s="12"/>
     </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
         <v>41</v>
       </c>
@@ -8928,7 +8930,7 @@
       <c r="R83" s="12"/>
       <c r="S83" s="12"/>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
         <v>42</v>
       </c>
@@ -9032,7 +9034,7 @@
       <c r="R85" s="12"/>
       <c r="S85" s="12"/>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
         <v>43</v>
       </c>
@@ -9142,7 +9144,7 @@
       <c r="R87" s="12"/>
       <c r="S87" s="12"/>
     </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
         <v>44</v>
       </c>
@@ -9252,7 +9254,7 @@
       <c r="R89" s="12"/>
       <c r="S89" s="12"/>
     </row>
-    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
         <v>45</v>
       </c>
@@ -9362,7 +9364,7 @@
       <c r="R91" s="12"/>
       <c r="S91" s="12"/>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
         <v>46</v>
       </c>
@@ -9472,7 +9474,7 @@
       <c r="R93" s="12"/>
       <c r="S93" s="12"/>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="10">
         <v>47</v>
       </c>
@@ -9582,7 +9584,7 @@
       <c r="R95" s="12"/>
       <c r="S95" s="12"/>
     </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="10">
         <v>48</v>
       </c>
@@ -9692,7 +9694,7 @@
       <c r="R97" s="12"/>
       <c r="S97" s="12"/>
     </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="10">
         <v>49</v>
       </c>
@@ -9802,7 +9804,7 @@
       <c r="R99" s="12"/>
       <c r="S99" s="12"/>
     </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="10">
         <v>50</v>
       </c>
@@ -9912,7 +9914,7 @@
       <c r="R101" s="12"/>
       <c r="S101" s="12"/>
     </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="10">
         <v>51</v>
       </c>
@@ -10022,7 +10024,7 @@
       <c r="R103" s="12"/>
       <c r="S103" s="12"/>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="10">
         <v>52</v>
       </c>
@@ -10126,7 +10128,7 @@
       <c r="R105" s="12"/>
       <c r="S105" s="12"/>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="10">
         <v>53</v>
       </c>
@@ -10230,7 +10232,7 @@
       <c r="R107" s="12"/>
       <c r="S107" s="12"/>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="10">
         <v>54</v>
       </c>
@@ -10334,7 +10336,7 @@
       <c r="R109" s="12"/>
       <c r="S109" s="12"/>
     </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="10">
         <v>55</v>
       </c>
@@ -10438,7 +10440,7 @@
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
     </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="10">
         <v>56</v>
       </c>
@@ -10548,7 +10550,7 @@
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="10">
         <v>57</v>
       </c>
@@ -10652,7 +10654,7 @@
       <c r="R115" s="12"/>
       <c r="S115" s="12"/>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="10">
         <v>58</v>
       </c>
@@ -10756,7 +10758,7 @@
       <c r="R117" s="12"/>
       <c r="S117" s="12"/>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="10">
         <v>59</v>
       </c>
@@ -10860,7 +10862,7 @@
       <c r="R119" s="12"/>
       <c r="S119" s="12"/>
     </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="10">
         <v>60</v>
       </c>
@@ -10964,7 +10966,7 @@
       <c r="R121" s="12"/>
       <c r="S121" s="12"/>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="10">
         <v>61</v>
       </c>
@@ -11068,7 +11070,7 @@
       <c r="R123" s="12"/>
       <c r="S123" s="12"/>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="10">
         <v>62</v>
       </c>
@@ -11172,7 +11174,7 @@
       <c r="R125" s="12"/>
       <c r="S125" s="12"/>
     </row>
-    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="10">
         <v>63</v>
       </c>
@@ -11276,7 +11278,7 @@
       <c r="R127" s="12"/>
       <c r="S127" s="12"/>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="10">
         <v>64</v>
       </c>
@@ -11386,7 +11388,7 @@
       <c r="R129" s="12"/>
       <c r="S129" s="12"/>
     </row>
-    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="10">
         <v>65</v>
       </c>
@@ -11493,7 +11495,7 @@
       <c r="R131" s="12"/>
       <c r="S131" s="12"/>
     </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="10">
         <v>66</v>
       </c>
@@ -11597,7 +11599,7 @@
       <c r="R133" s="12"/>
       <c r="S133" s="12"/>
     </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="10">
         <v>67</v>
       </c>
@@ -11701,7 +11703,7 @@
       <c r="R135" s="12"/>
       <c r="S135" s="12"/>
     </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="10">
         <v>68</v>
       </c>
@@ -11811,7 +11813,7 @@
       <c r="R137" s="12"/>
       <c r="S137" s="12"/>
     </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="10">
         <v>69</v>
       </c>
@@ -11918,7 +11920,7 @@
       <c r="R139" s="12"/>
       <c r="S139" s="12"/>
     </row>
-    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="10">
         <v>70</v>
       </c>
@@ -12025,7 +12027,7 @@
       <c r="R141" s="12"/>
       <c r="S141" s="12"/>
     </row>
-    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="10">
         <v>71</v>
       </c>
@@ -12138,7 +12140,7 @@
       <c r="R143" s="12"/>
       <c r="S143" s="12"/>
     </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="10">
         <v>72</v>
       </c>
@@ -12248,7 +12250,7 @@
       <c r="R145" s="12"/>
       <c r="S145" s="12"/>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" s="10">
         <v>73</v>
       </c>
@@ -12352,7 +12354,7 @@
       <c r="R147" s="12"/>
       <c r="S147" s="12"/>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" s="10">
         <v>74</v>
       </c>
@@ -12456,7 +12458,7 @@
       <c r="R149" s="12"/>
       <c r="S149" s="12"/>
     </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" s="10">
         <v>75</v>
       </c>
@@ -12560,7 +12562,7 @@
       <c r="R151" s="12"/>
       <c r="S151" s="12"/>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" s="10">
         <v>76</v>
       </c>
@@ -12664,7 +12666,7 @@
       <c r="R153" s="12"/>
       <c r="S153" s="12"/>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" s="10">
         <v>77</v>
       </c>
@@ -12768,7 +12770,7 @@
       <c r="R155" s="12"/>
       <c r="S155" s="12"/>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" s="10">
         <v>78</v>
       </c>
@@ -12872,7 +12874,7 @@
       <c r="R157" s="12"/>
       <c r="S157" s="12"/>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" s="10">
         <v>79</v>
       </c>
@@ -12976,7 +12978,7 @@
       <c r="R159" s="12"/>
       <c r="S159" s="12"/>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" s="10">
         <v>80</v>
       </c>
@@ -13080,7 +13082,7 @@
       <c r="R161" s="12"/>
       <c r="S161" s="12"/>
     </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="10">
         <v>81</v>
       </c>
@@ -13184,7 +13186,7 @@
       <c r="R163" s="12"/>
       <c r="S163" s="12"/>
     </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="10">
         <v>82</v>
       </c>
@@ -13288,7 +13290,7 @@
       <c r="R165" s="12"/>
       <c r="S165" s="12"/>
     </row>
-    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="10">
         <v>83</v>
       </c>
@@ -13392,7 +13394,7 @@
       <c r="R167" s="12"/>
       <c r="S167" s="12"/>
     </row>
-    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="10">
         <v>84</v>
       </c>
@@ -13496,7 +13498,7 @@
       <c r="R169" s="12"/>
       <c r="S169" s="12"/>
     </row>
-    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="10">
         <v>85</v>
       </c>
@@ -13605,7 +13607,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="10">
         <v>86</v>
       </c>
@@ -13709,7 +13711,7 @@
       <c r="R173" s="12"/>
       <c r="S173" s="12"/>
     </row>
-    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="10">
         <v>87</v>
       </c>
@@ -13813,7 +13815,7 @@
       <c r="R175" s="12"/>
       <c r="S175" s="12"/>
     </row>
-    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="10">
         <v>88</v>
       </c>
@@ -13917,7 +13919,7 @@
       <c r="R177" s="12"/>
       <c r="S177" s="12"/>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="10">
         <v>89</v>
       </c>
@@ -14021,7 +14023,7 @@
       <c r="R179" s="12"/>
       <c r="S179" s="12"/>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="10">
         <v>90</v>
       </c>
@@ -14125,7 +14127,7 @@
       <c r="R181" s="12"/>
       <c r="S181" s="12"/>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="10">
         <v>91</v>
       </c>
@@ -14229,7 +14231,7 @@
       <c r="R183" s="12"/>
       <c r="S183" s="12"/>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" s="10">
         <v>92</v>
       </c>
@@ -14333,7 +14335,7 @@
       <c r="R185" s="12"/>
       <c r="S185" s="12"/>
     </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" s="10">
         <v>93</v>
       </c>
@@ -14437,7 +14439,7 @@
       <c r="R187" s="12"/>
       <c r="S187" s="12"/>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="10">
         <v>94</v>
       </c>
@@ -14541,7 +14543,7 @@
       <c r="R189" s="12"/>
       <c r="S189" s="12"/>
     </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="10">
         <v>95</v>
       </c>
@@ -14645,7 +14647,7 @@
       <c r="R191" s="12"/>
       <c r="S191" s="12"/>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="10">
         <v>96</v>
       </c>
@@ -14749,7 +14751,7 @@
       <c r="R193" s="12"/>
       <c r="S193" s="12"/>
     </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="10">
         <v>97</v>
       </c>
@@ -14855,7 +14857,7 @@
       <c r="R195" s="12"/>
       <c r="S195" s="12"/>
     </row>
-    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="10">
         <v>98</v>
       </c>
@@ -14959,7 +14961,7 @@
       <c r="R197" s="12"/>
       <c r="S197" s="12"/>
     </row>
-    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="10">
         <v>99</v>
       </c>
@@ -15063,7 +15065,7 @@
       <c r="R199" s="12"/>
       <c r="S199" s="12"/>
     </row>
-    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="10">
         <v>100</v>
       </c>
@@ -15167,7 +15169,7 @@
       <c r="R201" s="12"/>
       <c r="S201" s="12"/>
     </row>
-    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202" s="10">
         <v>101</v>
       </c>
@@ -15271,7 +15273,7 @@
       <c r="R203" s="12"/>
       <c r="S203" s="12"/>
     </row>
-    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204" s="10">
         <v>102</v>
       </c>
@@ -15375,7 +15377,7 @@
       <c r="R205" s="12"/>
       <c r="S205" s="12"/>
     </row>
-    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206" s="10">
         <v>103</v>
       </c>
@@ -15482,7 +15484,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" s="10">
         <v>104</v>
       </c>
@@ -15586,7 +15588,7 @@
       <c r="R209" s="12"/>
       <c r="S209" s="12"/>
     </row>
-    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210" s="10">
         <v>105</v>
       </c>
@@ -15690,7 +15692,7 @@
       <c r="R211" s="12"/>
       <c r="S211" s="12"/>
     </row>
-    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" s="10">
         <v>106</v>
       </c>
@@ -15797,7 +15799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214" s="10">
         <v>107</v>
       </c>
@@ -15901,7 +15903,7 @@
       <c r="R215" s="12"/>
       <c r="S215" s="12"/>
     </row>
-    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216" s="10">
         <v>108</v>
       </c>
@@ -16005,7 +16007,7 @@
       <c r="R217" s="12"/>
       <c r="S217" s="12"/>
     </row>
-    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218" s="10">
         <v>109</v>
       </c>
@@ -16109,7 +16111,7 @@
       <c r="R219" s="12"/>
       <c r="S219" s="12"/>
     </row>
-    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220" s="10">
         <v>110</v>
       </c>
@@ -16213,7 +16215,7 @@
       <c r="R221" s="12"/>
       <c r="S221" s="12"/>
     </row>
-    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" s="10">
         <v>111</v>
       </c>
@@ -16317,7 +16319,7 @@
       <c r="R223" s="12"/>
       <c r="S223" s="12"/>
     </row>
-    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224" s="10">
         <v>112</v>
       </c>
@@ -16421,7 +16423,7 @@
       <c r="R225" s="12"/>
       <c r="S225" s="12"/>
     </row>
-    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226" s="10">
         <v>113</v>
       </c>
@@ -16525,7 +16527,7 @@
       <c r="R227" s="12"/>
       <c r="S227" s="12"/>
     </row>
-    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" s="10">
         <v>114</v>
       </c>
@@ -16629,7 +16631,7 @@
       <c r="R229" s="12"/>
       <c r="S229" s="12"/>
     </row>
-    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" s="10">
         <v>115</v>
       </c>
@@ -16733,7 +16735,7 @@
       <c r="R231" s="12"/>
       <c r="S231" s="12"/>
     </row>
-    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" s="10">
         <v>116</v>
       </c>
@@ -16889,7 +16891,7 @@
       <c r="R234" s="12"/>
       <c r="S234" s="12"/>
     </row>
-    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" s="10">
         <v>117</v>
       </c>
@@ -16944,7 +16946,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" s="10">
         <v>118</v>
       </c>
@@ -17048,7 +17050,7 @@
       <c r="R237" s="12"/>
       <c r="S237" s="12"/>
     </row>
-    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" s="10">
         <v>119</v>
       </c>
@@ -17152,7 +17154,7 @@
       <c r="R239" s="12"/>
       <c r="S239" s="12"/>
     </row>
-    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" s="10">
         <v>120</v>
       </c>
@@ -17256,7 +17258,7 @@
       <c r="R241" s="12"/>
       <c r="S241" s="12"/>
     </row>
-    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" s="10">
         <v>121</v>
       </c>
@@ -17366,7 +17368,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" s="10">
         <v>122</v>
       </c>
@@ -17470,7 +17472,7 @@
       <c r="R245" s="12"/>
       <c r="S245" s="12"/>
     </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" s="10">
         <v>123</v>
       </c>
@@ -17574,7 +17576,7 @@
       <c r="R247" s="12"/>
       <c r="S247" s="12"/>
     </row>
-    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" s="10">
         <v>124</v>
       </c>
@@ -17730,7 +17732,7 @@
       <c r="R250" s="12"/>
       <c r="S250" s="12"/>
     </row>
-    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" s="10">
         <v>125</v>
       </c>
@@ -17785,7 +17787,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" s="10">
         <v>126</v>
       </c>
@@ -17889,7 +17891,7 @@
       <c r="R253" s="12"/>
       <c r="S253" s="12"/>
     </row>
-    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" s="10">
         <v>127</v>
       </c>
@@ -18005,7 +18007,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" s="10">
         <v>128</v>
       </c>
@@ -18115,7 +18117,7 @@
       <c r="R257" s="12"/>
       <c r="S257" s="12"/>
     </row>
-    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" s="10">
         <v>129</v>
       </c>
@@ -18225,7 +18227,7 @@
       <c r="R259" s="12"/>
       <c r="S259" s="12"/>
     </row>
-    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" s="10">
         <v>130</v>
       </c>
@@ -18334,7 +18336,7 @@
       <c r="R261" s="12"/>
       <c r="S261" s="12"/>
     </row>
-    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" s="10">
         <v>131</v>
       </c>
@@ -18452,7 +18454,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" s="10">
         <v>132</v>
       </c>
@@ -18562,7 +18564,7 @@
       <c r="R265" s="12"/>
       <c r="S265" s="12"/>
     </row>
-    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" s="10">
         <v>133</v>
       </c>
@@ -18678,7 +18680,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" s="10">
         <v>134</v>
       </c>
@@ -18788,7 +18790,7 @@
       <c r="R269" s="12"/>
       <c r="S269" s="12"/>
     </row>
-    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" s="10">
         <v>135</v>
       </c>
@@ -18904,7 +18906,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" s="10">
         <v>136</v>
       </c>
@@ -19014,7 +19016,7 @@
       <c r="R273" s="12"/>
       <c r="S273" s="12"/>
     </row>
-    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274" s="10">
         <v>137</v>
       </c>
@@ -19124,7 +19126,7 @@
       <c r="R275" s="12"/>
       <c r="S275" s="12"/>
     </row>
-    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276" s="10">
         <v>138</v>
       </c>
@@ -19233,7 +19235,7 @@
       <c r="R277" s="12"/>
       <c r="S277" s="12"/>
     </row>
-    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" s="10">
         <v>139</v>
       </c>
@@ -19351,7 +19353,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" s="10">
         <v>140</v>
       </c>
@@ -19461,7 +19463,7 @@
       <c r="R281" s="12"/>
       <c r="S281" s="12"/>
     </row>
-    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" s="10">
         <v>141</v>
       </c>
@@ -19573,7 +19575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284" s="10">
         <v>142</v>
       </c>
@@ -19683,7 +19685,7 @@
       <c r="R285" s="12"/>
       <c r="S285" s="12"/>
     </row>
-    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286" s="10">
         <v>143</v>
       </c>
@@ -19793,7 +19795,7 @@
       <c r="R287" s="12"/>
       <c r="S287" s="12"/>
     </row>
-    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" s="10">
         <v>144</v>
       </c>
@@ -19903,7 +19905,7 @@
       <c r="R289" s="12"/>
       <c r="S289" s="12"/>
     </row>
-    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290" s="10">
         <v>145</v>
       </c>
@@ -20015,7 +20017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" s="10">
         <v>146</v>
       </c>
@@ -20131,7 +20133,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A294" s="10">
         <v>147</v>
       </c>
@@ -20241,7 +20243,7 @@
       <c r="R295" s="12"/>
       <c r="S295" s="12"/>
     </row>
-    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296" s="10">
         <v>148</v>
       </c>
@@ -20351,7 +20353,7 @@
       <c r="R297" s="12"/>
       <c r="S297" s="12"/>
     </row>
-    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298" s="10">
         <v>149</v>
       </c>
@@ -20461,7 +20463,7 @@
       <c r="R299" s="12"/>
       <c r="S299" s="12"/>
     </row>
-    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" s="10">
         <v>150</v>
       </c>
@@ -20573,7 +20575,7 @@
       <c r="R301" s="12"/>
       <c r="S301" s="12"/>
     </row>
-    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" s="10">
         <v>151</v>
       </c>
@@ -20689,7 +20691,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304" s="10">
         <v>152</v>
       </c>
@@ -20805,7 +20807,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306" s="10">
         <v>153</v>
       </c>
@@ -20921,7 +20923,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308" s="10">
         <v>154</v>
       </c>
@@ -21037,7 +21039,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A310" s="10">
         <v>155</v>
       </c>
@@ -21147,7 +21149,7 @@
       <c r="R311" s="12"/>
       <c r="S311" s="12"/>
     </row>
-    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A312" s="10">
         <v>156</v>
       </c>
@@ -21257,7 +21259,7 @@
       <c r="R313" s="12"/>
       <c r="S313" s="12"/>
     </row>
-    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A314" s="10">
         <v>157</v>
       </c>
@@ -21367,7 +21369,7 @@
       <c r="R315" s="12"/>
       <c r="S315" s="12"/>
     </row>
-    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A316" s="10">
         <v>158</v>
       </c>
@@ -21477,7 +21479,7 @@
       <c r="R317" s="12"/>
       <c r="S317" s="12"/>
     </row>
-    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A318" s="10">
         <v>159</v>
       </c>
@@ -21587,7 +21589,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A320" s="10">
         <v>160</v>
       </c>
@@ -21691,7 +21693,7 @@
       <c r="R321" s="12"/>
       <c r="S321" s="12"/>
     </row>
-    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A322" s="10">
         <v>161</v>
       </c>
@@ -21804,7 +21806,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324" s="10">
         <v>162</v>
       </c>
@@ -21908,7 +21910,7 @@
       <c r="R325" s="12"/>
       <c r="S325" s="12"/>
     </row>
-    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A326" s="10">
         <v>163</v>
       </c>
@@ -22012,7 +22014,7 @@
       <c r="R327" s="12"/>
       <c r="S327" s="12"/>
     </row>
-    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328" s="10">
         <v>164</v>
       </c>
@@ -22116,7 +22118,7 @@
       <c r="R329" s="12"/>
       <c r="S329" s="12"/>
     </row>
-    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330" s="10">
         <v>165</v>
       </c>
@@ -22220,7 +22222,7 @@
       <c r="R331" s="12"/>
       <c r="S331" s="12"/>
     </row>
-    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A332" s="10">
         <v>166</v>
       </c>
@@ -22327,7 +22329,7 @@
       <c r="R333" s="12"/>
       <c r="S333" s="12"/>
     </row>
-    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A334" s="10">
         <v>167</v>
       </c>
@@ -22431,7 +22433,7 @@
       <c r="R335" s="12"/>
       <c r="S335" s="12"/>
     </row>
-    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A336" s="10">
         <v>168</v>
       </c>
@@ -22535,7 +22537,7 @@
       <c r="R337" s="12"/>
       <c r="S337" s="12"/>
     </row>
-    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A338" s="10">
         <v>169</v>
       </c>
@@ -22700,7 +22702,7 @@
       <c r="R340" s="12"/>
       <c r="S340" s="12"/>
     </row>
-    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341" s="10">
         <v>170</v>
       </c>
@@ -22758,7 +22760,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A342" s="10">
         <v>171</v>
       </c>
@@ -22868,7 +22870,7 @@
       <c r="R343" s="12"/>
       <c r="S343" s="12"/>
     </row>
-    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A344" s="10">
         <v>172</v>
       </c>
@@ -22988,7 +22990,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A346" s="10">
         <v>173</v>
       </c>
@@ -23098,7 +23100,7 @@
       <c r="R347" s="12"/>
       <c r="S347" s="12"/>
     </row>
-    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A348" s="10">
         <v>174</v>
       </c>
@@ -23208,7 +23210,7 @@
       <c r="R349" s="12"/>
       <c r="S349" s="12"/>
     </row>
-    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A350" s="10">
         <v>175</v>
       </c>
@@ -23318,7 +23320,7 @@
       <c r="R351" s="12"/>
       <c r="S351" s="12"/>
     </row>
-    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A352" s="10">
         <v>176</v>
       </c>
@@ -23428,7 +23430,7 @@
       <c r="R353" s="12"/>
       <c r="S353" s="12"/>
     </row>
-    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354" s="10">
         <v>177</v>
       </c>
@@ -23538,7 +23540,7 @@
       <c r="R355" s="12"/>
       <c r="S355" s="12"/>
     </row>
-    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A356" s="10">
         <v>178</v>
       </c>
@@ -23648,7 +23650,7 @@
       <c r="R357" s="12"/>
       <c r="S357" s="12"/>
     </row>
-    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A358" s="10">
         <v>179</v>
       </c>
@@ -23758,7 +23760,7 @@
       <c r="R359" s="12"/>
       <c r="S359" s="12"/>
     </row>
-    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A360" s="10">
         <v>180</v>
       </c>
@@ -23873,7 +23875,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A362" s="10">
         <v>181</v>
       </c>
@@ -23983,7 +23985,7 @@
       <c r="R363" s="12"/>
       <c r="S363" s="12"/>
     </row>
-    <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A364" s="10">
         <v>182</v>
       </c>
@@ -24093,7 +24095,7 @@
       <c r="R365" s="12"/>
       <c r="S365" s="12"/>
     </row>
-    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A366" s="10">
         <v>183</v>
       </c>
@@ -24205,7 +24207,7 @@
       <c r="R367" s="12"/>
       <c r="S367" s="12"/>
     </row>
-    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A368" s="10">
         <v>184</v>
       </c>
@@ -24315,7 +24317,7 @@
       <c r="R369" s="12"/>
       <c r="S369" s="12"/>
     </row>
-    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A370" s="10">
         <v>185</v>
       </c>
@@ -24425,7 +24427,7 @@
       <c r="R371" s="12"/>
       <c r="S371" s="12"/>
     </row>
-    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A372" s="10">
         <v>186</v>
       </c>
@@ -24535,7 +24537,7 @@
       <c r="R373" s="12"/>
       <c r="S373" s="12"/>
     </row>
-    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A374" s="10">
         <v>187</v>
       </c>
@@ -24645,7 +24647,7 @@
       <c r="R375" s="12"/>
       <c r="S375" s="12"/>
     </row>
-    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A376" s="10">
         <v>188</v>
       </c>
@@ -24755,7 +24757,7 @@
       <c r="R377" s="12"/>
       <c r="S377" s="12"/>
     </row>
-    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A378" s="10">
         <v>189</v>
       </c>
@@ -24871,7 +24873,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A380" s="10">
         <v>190</v>
       </c>
@@ -24981,7 +24983,7 @@
       <c r="R381" s="12"/>
       <c r="S381" s="12"/>
     </row>
-    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A382" s="10">
         <v>191</v>
       </c>
@@ -25091,7 +25093,7 @@
       <c r="R383" s="12"/>
       <c r="S383" s="12"/>
     </row>
-    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A384" s="10">
         <v>192</v>
       </c>
@@ -25201,7 +25203,7 @@
       <c r="R385" s="12"/>
       <c r="S385" s="12"/>
     </row>
-    <row r="386" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A386" s="10">
         <v>193</v>
       </c>
@@ -25311,7 +25313,7 @@
       <c r="R387" s="12"/>
       <c r="S387" s="12"/>
     </row>
-    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A388" s="10">
         <v>194</v>
       </c>
@@ -25421,7 +25423,7 @@
       <c r="R389" s="12"/>
       <c r="S389" s="12"/>
     </row>
-    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A390" s="10">
         <v>195</v>
       </c>
@@ -25531,7 +25533,7 @@
       <c r="R391" s="12"/>
       <c r="S391" s="12"/>
     </row>
-    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A392" s="10">
         <v>196</v>
       </c>
@@ -25643,7 +25645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A394" s="10">
         <v>197</v>
       </c>
@@ -25753,7 +25755,7 @@
       <c r="R395" s="12"/>
       <c r="S395" s="12"/>
     </row>
-    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A396" s="10">
         <v>198</v>
       </c>
@@ -25863,7 +25865,7 @@
       <c r="R397" s="12"/>
       <c r="S397" s="12"/>
     </row>
-    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398" s="10">
         <v>199</v>
       </c>
@@ -25973,7 +25975,7 @@
       <c r="R399" s="12"/>
       <c r="S399" s="12"/>
     </row>
-    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A400" s="10">
         <v>200</v>
       </c>
@@ -26083,7 +26085,7 @@
       <c r="R401" s="12"/>
       <c r="S401" s="12"/>
     </row>
-    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A402" s="10">
         <v>201</v>
       </c>
@@ -26248,7 +26250,7 @@
       <c r="R404" s="12"/>
       <c r="S404" s="12"/>
     </row>
-    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A405" s="10">
         <v>202</v>
       </c>
@@ -26306,7 +26308,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A406" s="10">
         <v>203</v>
       </c>
@@ -26416,7 +26418,7 @@
       <c r="R407" s="12"/>
       <c r="S407" s="12"/>
     </row>
-    <row r="408" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A408" s="10">
         <v>204</v>
       </c>
@@ -26529,7 +26531,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A410" s="10">
         <v>205</v>
       </c>
@@ -26639,7 +26641,7 @@
       <c r="R411" s="12"/>
       <c r="S411" s="12"/>
     </row>
-    <row r="412" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A412" s="10">
         <v>206</v>
       </c>
@@ -26752,7 +26754,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A414" s="10">
         <v>207</v>
       </c>
@@ -26917,7 +26919,7 @@
       <c r="R416" s="12"/>
       <c r="S416" s="12"/>
     </row>
-    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A417" s="10">
         <v>208</v>
       </c>
@@ -26975,7 +26977,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A418" s="10">
         <v>209</v>
       </c>
@@ -27079,7 +27081,7 @@
       <c r="R419" s="12"/>
       <c r="S419" s="12"/>
     </row>
-    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A420" s="10">
         <v>210</v>
       </c>
@@ -27183,7 +27185,7 @@
       <c r="R421" s="12"/>
       <c r="S421" s="12"/>
     </row>
-    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A422" s="10">
         <v>211</v>
       </c>
@@ -27287,7 +27289,7 @@
       <c r="R423" s="12"/>
       <c r="S423" s="12"/>
     </row>
-    <row r="424" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A424" s="10">
         <v>212</v>
       </c>
@@ -27394,7 +27396,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A426" s="10">
         <v>213</v>
       </c>
@@ -27550,7 +27552,7 @@
       <c r="R428" s="12"/>
       <c r="S428" s="12"/>
     </row>
-    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A429" s="10">
         <v>214</v>
       </c>
@@ -27605,7 +27607,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A430" s="10">
         <v>215</v>
       </c>
@@ -27709,7 +27711,7 @@
       <c r="R431" s="12"/>
       <c r="S431" s="12"/>
     </row>
-    <row r="432" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A432" s="10">
         <v>216</v>
       </c>
@@ -27813,7 +27815,7 @@
       <c r="R433" s="12"/>
       <c r="S433" s="12"/>
     </row>
-    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A434" s="10">
         <v>217</v>
       </c>
@@ -27923,7 +27925,7 @@
       <c r="R435" s="12"/>
       <c r="S435" s="12"/>
     </row>
-    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A436" s="10">
         <v>218</v>
       </c>
@@ -28033,7 +28035,7 @@
       <c r="R437" s="12"/>
       <c r="S437" s="12"/>
     </row>
-    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A438" s="10">
         <v>219</v>
       </c>
@@ -28143,7 +28145,7 @@
       <c r="R439" s="12"/>
       <c r="S439" s="12"/>
     </row>
-    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A440" s="10">
         <v>220</v>
       </c>
@@ -28259,7 +28261,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="442" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A442" s="10">
         <v>221</v>
       </c>
@@ -28363,7 +28365,7 @@
       <c r="R443" s="12"/>
       <c r="S443" s="12"/>
     </row>
-    <row r="444" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A444" s="10">
         <v>222</v>
       </c>
@@ -28467,7 +28469,7 @@
       <c r="R445" s="12"/>
       <c r="S445" s="12"/>
     </row>
-    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A446" s="10">
         <v>223</v>
       </c>
@@ -28571,7 +28573,7 @@
       <c r="R447" s="12"/>
       <c r="S447" s="12"/>
     </row>
-    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A448" s="10">
         <v>224</v>
       </c>
@@ -28675,7 +28677,7 @@
       <c r="R449" s="12"/>
       <c r="S449" s="12"/>
     </row>
-    <row r="450" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A450" s="10">
         <v>225</v>
       </c>
@@ -28779,7 +28781,7 @@
       <c r="R451" s="12"/>
       <c r="S451" s="12"/>
     </row>
-    <row r="452" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A452" s="10">
         <v>226</v>
       </c>
@@ -28883,7 +28885,7 @@
       <c r="R453" s="12"/>
       <c r="S453" s="12"/>
     </row>
-    <row r="454" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A454" s="10">
         <v>227</v>
       </c>
@@ -29039,7 +29041,7 @@
       <c r="R456" s="12"/>
       <c r="S456" s="12"/>
     </row>
-    <row r="457" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A457" s="10">
         <v>228</v>
       </c>
@@ -29094,7 +29096,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="458" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A458" s="10">
         <v>229</v>
       </c>
@@ -29198,7 +29200,7 @@
       <c r="R459" s="12"/>
       <c r="S459" s="12"/>
     </row>
-    <row r="460" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A460" s="10">
         <v>230</v>
       </c>
@@ -29302,7 +29304,7 @@
       <c r="R461" s="12"/>
       <c r="S461" s="12"/>
     </row>
-    <row r="462" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A462" s="10">
         <v>231</v>
       </c>
@@ -29406,7 +29408,7 @@
       <c r="R463" s="12"/>
       <c r="S463" s="12"/>
     </row>
-    <row r="464" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A464" s="10">
         <v>232</v>
       </c>
@@ -29510,7 +29512,7 @@
       <c r="R465" s="12"/>
       <c r="S465" s="12"/>
     </row>
-    <row r="466" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A466" s="10">
         <v>233</v>
       </c>
@@ -29565,7 +29567,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="467" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A467" s="10">
         <v>234</v>
       </c>
@@ -29620,7 +29622,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="468" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A468" s="10">
         <v>235</v>
       </c>
@@ -29675,7 +29677,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="469" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A469" s="10">
         <v>236</v>
       </c>
@@ -29730,7 +29732,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="470" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A470" s="10">
         <v>237</v>
       </c>
@@ -29785,7 +29787,7 @@
       <c r="R470" s="12"/>
       <c r="S470" s="12"/>
     </row>
-    <row r="471" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A471" s="10">
         <v>238</v>
       </c>
@@ -29840,7 +29842,7 @@
       <c r="R471" s="12"/>
       <c r="S471" s="12"/>
     </row>
-    <row r="472" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A472" s="10">
         <v>239</v>
       </c>
@@ -29895,7 +29897,7 @@
       <c r="R472" s="12"/>
       <c r="S472" s="12"/>
     </row>
-    <row r="473" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A473" s="10">
         <v>240</v>
       </c>
@@ -29950,7 +29952,7 @@
       <c r="R473" s="12"/>
       <c r="S473" s="12"/>
     </row>
-    <row r="474" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A474" s="10">
         <v>241</v>
       </c>
@@ -30005,7 +30007,7 @@
       <c r="R474" s="12"/>
       <c r="S474" s="12"/>
     </row>
-    <row r="475" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A475" s="10">
         <v>242</v>
       </c>
@@ -30060,7 +30062,7 @@
       <c r="R475" s="12"/>
       <c r="S475" s="12"/>
     </row>
-    <row r="476" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A476" s="10">
         <v>243</v>
       </c>
@@ -30115,7 +30117,7 @@
       <c r="R476" s="12"/>
       <c r="S476" s="12"/>
     </row>
-    <row r="477" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A477" s="10">
         <v>244</v>
       </c>
@@ -30170,7 +30172,7 @@
       <c r="R477" s="12"/>
       <c r="S477" s="12"/>
     </row>
-    <row r="478" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A478" s="10">
         <v>245</v>
       </c>
@@ -30225,7 +30227,7 @@
       <c r="R478" s="12"/>
       <c r="S478" s="12"/>
     </row>
-    <row r="479" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A479" s="10">
         <v>246</v>
       </c>
@@ -30280,7 +30282,7 @@
       <c r="R479" s="12"/>
       <c r="S479" s="12"/>
     </row>
-    <row r="480" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A480" s="10">
         <v>247</v>
       </c>
@@ -30335,7 +30337,7 @@
       <c r="R480" s="12"/>
       <c r="S480" s="12"/>
     </row>
-    <row r="481" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A481" s="10">
         <v>248</v>
       </c>
@@ -30390,7 +30392,7 @@
       <c r="R481" s="12"/>
       <c r="S481" s="12"/>
     </row>
-    <row r="482" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482" s="10">
         <v>249</v>
       </c>
@@ -30445,7 +30447,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="483" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" s="10">
         <v>250</v>
       </c>
@@ -30497,7 +30499,7 @@
       <c r="R483" s="12"/>
       <c r="S483" s="12"/>
     </row>
-    <row r="484" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A484" s="10">
         <v>251</v>
       </c>
@@ -30552,7 +30554,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="485" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A485" s="10">
         <v>252</v>
       </c>
@@ -30607,7 +30609,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="486" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A486" s="10">
         <v>253</v>
       </c>
@@ -30662,7 +30664,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="487" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A487" s="10">
         <v>254</v>
       </c>
@@ -30717,7 +30719,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="488" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A488" s="10">
         <v>255</v>
       </c>
@@ -30772,7 +30774,7 @@
       <c r="R488" s="12"/>
       <c r="S488" s="12"/>
     </row>
-    <row r="489" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A489" s="10">
         <v>256</v>
       </c>
@@ -30830,7 +30832,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="490" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A490" s="10">
         <v>257</v>
       </c>
@@ -30885,7 +30887,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="491" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A491" s="10">
         <v>258</v>
       </c>
@@ -30943,7 +30945,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="492" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A492" s="10">
         <v>259</v>
       </c>
@@ -30998,7 +31000,7 @@
       <c r="R492" s="12"/>
       <c r="S492" s="12"/>
     </row>
-    <row r="493" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A493" s="10">
         <v>260</v>
       </c>
@@ -31053,7 +31055,7 @@
       <c r="R493" s="12"/>
       <c r="S493" s="12"/>
     </row>
-    <row r="494" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A494" s="10">
         <v>261</v>
       </c>
@@ -31108,7 +31110,7 @@
       <c r="R494" s="12"/>
       <c r="S494" s="12"/>
     </row>
-    <row r="495" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A495" s="10">
         <v>262</v>
       </c>
@@ -31163,7 +31165,7 @@
       <c r="R495" s="12"/>
       <c r="S495" s="12"/>
     </row>
-    <row r="496" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A496" s="10">
         <v>263</v>
       </c>
@@ -31223,7 +31225,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="497" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A497" s="10">
         <v>264</v>
       </c>
@@ -31278,7 +31280,7 @@
       <c r="R497" s="12"/>
       <c r="S497" s="12"/>
     </row>
-    <row r="498" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A498" s="10">
         <v>265</v>
       </c>
@@ -31330,7 +31332,7 @@
       <c r="R498" s="12"/>
       <c r="S498" s="12"/>
     </row>
-    <row r="499" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A499" s="10">
         <v>266</v>
       </c>
@@ -31382,7 +31384,7 @@
       <c r="R499" s="12"/>
       <c r="S499" s="12"/>
     </row>
-    <row r="500" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A500" s="10">
         <v>267</v>
       </c>
@@ -31434,7 +31436,7 @@
       <c r="R500" s="12"/>
       <c r="S500" s="12"/>
     </row>
-    <row r="501" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A501" s="10">
         <v>268</v>
       </c>
@@ -31486,7 +31488,7 @@
       <c r="R501" s="12"/>
       <c r="S501" s="12"/>
     </row>
-    <row r="502" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A502" s="10">
         <v>269</v>
       </c>
@@ -31538,7 +31540,7 @@
       <c r="R502" s="12"/>
       <c r="S502" s="12"/>
     </row>
-    <row r="503" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A503" s="10">
         <v>270</v>
       </c>
@@ -31590,7 +31592,7 @@
       <c r="R503" s="12"/>
       <c r="S503" s="12"/>
     </row>
-    <row r="504" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A504" s="10">
         <v>271</v>
       </c>
@@ -31642,7 +31644,7 @@
       <c r="R504" s="12"/>
       <c r="S504" s="12"/>
     </row>
-    <row r="505" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A505" s="10">
         <v>272</v>
       </c>
@@ -31694,7 +31696,7 @@
       <c r="R505" s="12"/>
       <c r="S505" s="12"/>
     </row>
-    <row r="506" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A506" s="10">
         <v>273</v>
       </c>
@@ -31746,7 +31748,7 @@
       <c r="R506" s="12"/>
       <c r="S506" s="12"/>
     </row>
-    <row r="507" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A507" s="10">
         <v>274</v>
       </c>
@@ -31801,7 +31803,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="508" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A508" s="10">
         <v>275</v>
       </c>
@@ -31856,7 +31858,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="509" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A509" s="10">
         <v>276</v>
       </c>
@@ -31911,7 +31913,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="510" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A510" s="10">
         <v>277</v>
       </c>
@@ -31963,7 +31965,7 @@
       <c r="R510" s="12"/>
       <c r="S510" s="12"/>
     </row>
-    <row r="511" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A511" s="10">
         <v>278</v>
       </c>
@@ -32015,7 +32017,7 @@
       <c r="R511" s="12"/>
       <c r="S511" s="12"/>
     </row>
-    <row r="512" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A512" s="10">
         <v>279</v>
       </c>
@@ -32067,7 +32069,7 @@
       <c r="R512" s="12"/>
       <c r="S512" s="12"/>
     </row>
-    <row r="513" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A513" s="10">
         <v>280</v>
       </c>
@@ -32119,7 +32121,7 @@
       <c r="R513" s="12"/>
       <c r="S513" s="12"/>
     </row>
-    <row r="514" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A514" s="10">
         <v>281</v>
       </c>
@@ -32171,7 +32173,7 @@
       <c r="R514" s="12"/>
       <c r="S514" s="12"/>
     </row>
-    <row r="515" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A515" s="10">
         <v>282</v>
       </c>
@@ -32223,7 +32225,7 @@
       <c r="R515" s="12"/>
       <c r="S515" s="12"/>
     </row>
-    <row r="516" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A516" s="10">
         <v>283</v>
       </c>
@@ -32275,7 +32277,7 @@
       <c r="R516" s="12"/>
       <c r="S516" s="12"/>
     </row>
-    <row r="517" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A517" s="10">
         <v>284</v>
       </c>
@@ -32327,7 +32329,7 @@
       <c r="R517" s="12"/>
       <c r="S517" s="12"/>
     </row>
-    <row r="518" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A518" s="10">
         <v>285</v>
       </c>
@@ -32379,7 +32381,7 @@
       <c r="R518" s="12"/>
       <c r="S518" s="12"/>
     </row>
-    <row r="519" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A519" s="10">
         <v>286</v>
       </c>
@@ -32431,7 +32433,7 @@
       <c r="R519" s="12"/>
       <c r="S519" s="12"/>
     </row>
-    <row r="520" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A520" s="10">
         <v>287</v>
       </c>
@@ -32483,7 +32485,7 @@
       <c r="R520" s="12"/>
       <c r="S520" s="12"/>
     </row>
-    <row r="521" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A521" s="10">
         <v>288</v>
       </c>
@@ -32535,7 +32537,7 @@
       <c r="R521" s="12"/>
       <c r="S521" s="12"/>
     </row>
-    <row r="522" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A522" s="10">
         <v>289</v>
       </c>
@@ -32587,7 +32589,7 @@
       <c r="R522" s="12"/>
       <c r="S522" s="12"/>
     </row>
-    <row r="523" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A523" s="10">
         <v>290</v>
       </c>
@@ -32639,7 +32641,7 @@
       <c r="R523" s="12"/>
       <c r="S523" s="12"/>
     </row>
-    <row r="524" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A524" s="10">
         <v>291</v>
       </c>
@@ -32691,7 +32693,7 @@
       <c r="R524" s="12"/>
       <c r="S524" s="12"/>
     </row>
-    <row r="525" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A525" s="10">
         <v>292</v>
       </c>
@@ -32743,7 +32745,7 @@
       <c r="R525" s="12"/>
       <c r="S525" s="12"/>
     </row>
-    <row r="526" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A526" s="10">
         <v>293</v>
       </c>
@@ -32798,7 +32800,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="527" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A527" s="10">
         <v>294</v>
       </c>
@@ -32850,7 +32852,7 @@
       <c r="R527" s="12"/>
       <c r="S527" s="12"/>
     </row>
-    <row r="528" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A528" s="10">
         <v>295</v>
       </c>
@@ -32905,7 +32907,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="529" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A529" s="10">
         <v>296</v>
       </c>
@@ -32960,7 +32962,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="530" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A530" s="10">
         <v>297</v>
       </c>
@@ -33015,7 +33017,7 @@
       <c r="R530" s="12"/>
       <c r="S530" s="12"/>
     </row>
-    <row r="531" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A531" s="10">
         <v>298</v>
       </c>
@@ -33070,7 +33072,7 @@
       <c r="R531" s="12"/>
       <c r="S531" s="12"/>
     </row>
-    <row r="532" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A532" s="10">
         <v>299</v>
       </c>
@@ -33128,7 +33130,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="533" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A533" s="10">
         <v>300</v>
       </c>
@@ -33183,7 +33185,7 @@
       <c r="R533" s="12"/>
       <c r="S533" s="12"/>
     </row>
-    <row r="534" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A534" s="10">
         <v>301</v>
       </c>
@@ -33241,7 +33243,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="535" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A535" s="10">
         <v>302</v>
       </c>
@@ -33298,7 +33300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A536" s="10">
         <v>303</v>
       </c>
@@ -33353,7 +33355,7 @@
       <c r="R536" s="12"/>
       <c r="S536" s="12"/>
     </row>
-    <row r="537" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A537" s="10">
         <v>304</v>
       </c>
@@ -33411,7 +33413,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="538" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A538" s="10">
         <v>305</v>
       </c>
@@ -33469,7 +33471,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="539" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A539" s="10">
         <v>306</v>
       </c>
@@ -33527,7 +33529,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="540" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A540" s="10">
         <v>307</v>
       </c>
@@ -33582,7 +33584,7 @@
       <c r="R540" s="12"/>
       <c r="S540" s="12"/>
     </row>
-    <row r="541" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A541" s="10">
         <v>308</v>
       </c>
@@ -33639,7 +33641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A542" s="10">
         <v>309</v>
       </c>
@@ -33696,7 +33698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A543" s="10">
         <v>310</v>
       </c>
@@ -33753,7 +33755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A544" s="10">
         <v>311</v>
       </c>
@@ -33808,7 +33810,7 @@
       <c r="R544" s="12"/>
       <c r="S544" s="12"/>
     </row>
-    <row r="545" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A545" s="10">
         <v>312</v>
       </c>
@@ -33866,7 +33868,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="546" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A546" s="10">
         <v>313</v>
       </c>
@@ -33924,7 +33926,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="547" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A547" s="10">
         <v>314</v>
       </c>
@@ -33979,7 +33981,7 @@
       <c r="R547" s="12"/>
       <c r="S547" s="12"/>
     </row>
-    <row r="548" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A548" s="10">
         <v>315</v>
       </c>
@@ -34034,7 +34036,7 @@
       <c r="R548" s="12"/>
       <c r="S548" s="12"/>
     </row>
-    <row r="549" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A549" s="10">
         <v>316</v>
       </c>
@@ -34089,7 +34091,7 @@
       <c r="R549" s="12"/>
       <c r="S549" s="12"/>
     </row>
-    <row r="550" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A550" s="10">
         <v>317</v>
       </c>
@@ -34144,7 +34146,7 @@
       <c r="R550" s="12"/>
       <c r="S550" s="12"/>
     </row>
-    <row r="551" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A551" s="10">
         <v>318</v>
       </c>
@@ -34199,7 +34201,7 @@
       <c r="R551" s="12"/>
       <c r="S551" s="12"/>
     </row>
-    <row r="552" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A552" s="10">
         <v>319</v>
       </c>
@@ -34257,7 +34259,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="553" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A553" s="10">
         <v>320</v>
       </c>
@@ -34312,7 +34314,7 @@
       <c r="R553" s="12"/>
       <c r="S553" s="12"/>
     </row>
-    <row r="554" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A554" s="10">
         <v>321</v>
       </c>
@@ -34367,7 +34369,7 @@
       <c r="R554" s="12"/>
       <c r="S554" s="12"/>
     </row>
-    <row r="555" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A555" s="10">
         <v>322</v>
       </c>
@@ -34422,7 +34424,7 @@
       <c r="R555" s="12"/>
       <c r="S555" s="12"/>
     </row>
-    <row r="556" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A556" s="10">
         <v>323</v>
       </c>
@@ -34477,7 +34479,7 @@
       <c r="R556" s="12"/>
       <c r="S556" s="12"/>
     </row>
-    <row r="557" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A557" s="10">
         <v>324</v>
       </c>
@@ -34532,7 +34534,7 @@
       <c r="R557" s="12"/>
       <c r="S557" s="12"/>
     </row>
-    <row r="558" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A558" s="10">
         <v>325</v>
       </c>
@@ -34587,7 +34589,7 @@
       <c r="R558" s="12"/>
       <c r="S558" s="12"/>
     </row>
-    <row r="559" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A559" s="10">
         <v>326</v>
       </c>
@@ -34645,7 +34647,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="560" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A560" s="10">
         <v>327</v>
       </c>
@@ -34700,7 +34702,7 @@
       <c r="R560" s="12"/>
       <c r="S560" s="12"/>
     </row>
-    <row r="561" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A561" s="10">
         <v>328</v>
       </c>
@@ -34755,7 +34757,7 @@
       <c r="R561" s="12"/>
       <c r="S561" s="12"/>
     </row>
-    <row r="562" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A562" s="10">
         <v>329</v>
       </c>
@@ -34810,7 +34812,7 @@
       <c r="R562" s="12"/>
       <c r="S562" s="12"/>
     </row>
-    <row r="563" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A563" s="10">
         <v>330</v>
       </c>
@@ -34865,7 +34867,7 @@
       <c r="R563" s="12"/>
       <c r="S563" s="12"/>
     </row>
-    <row r="564" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A564" s="10">
         <v>331</v>
       </c>
@@ -34923,7 +34925,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="565" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A565" s="10">
         <v>332</v>
       </c>
@@ -34978,7 +34980,7 @@
       <c r="R565" s="12"/>
       <c r="S565" s="12"/>
     </row>
-    <row r="566" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A566" s="10">
         <v>333</v>
       </c>
@@ -35036,7 +35038,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="567" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A567" s="10">
         <v>334</v>
       </c>
@@ -35088,7 +35090,7 @@
       <c r="R567" s="12"/>
       <c r="S567" s="12"/>
     </row>
-    <row r="568" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A568" s="10">
         <v>335</v>
       </c>
@@ -35140,7 +35142,7 @@
       <c r="R568" s="12"/>
       <c r="S568" s="12"/>
     </row>
-    <row r="569" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A569" s="10">
         <v>336</v>
       </c>
@@ -35195,7 +35197,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="570" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A570" s="10">
         <v>337</v>
       </c>
@@ -35250,7 +35252,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="571" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A571" s="10">
         <v>338</v>
       </c>
@@ -35308,7 +35310,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="572" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A572" s="10">
         <v>339</v>
       </c>
@@ -35360,7 +35362,7 @@
       <c r="R572" s="12"/>
       <c r="S572" s="12"/>
     </row>
-    <row r="573" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A573" s="10">
         <v>340</v>
       </c>
@@ -35412,7 +35414,7 @@
       <c r="R573" s="12"/>
       <c r="S573" s="12"/>
     </row>
-    <row r="574" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A574" s="10">
         <v>341</v>
       </c>
@@ -35464,7 +35466,7 @@
       <c r="R574" s="12"/>
       <c r="S574" s="12"/>
     </row>
-    <row r="575" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A575" s="10">
         <v>342</v>
       </c>
@@ -35516,7 +35518,7 @@
       <c r="R575" s="12"/>
       <c r="S575" s="12"/>
     </row>
-    <row r="576" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A576" s="10">
         <v>343</v>
       </c>
@@ -35568,7 +35570,7 @@
       <c r="R576" s="12"/>
       <c r="S576" s="12"/>
     </row>
-    <row r="577" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A577" s="10">
         <v>344</v>
       </c>
@@ -35623,7 +35625,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="578" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A578" s="10">
         <v>345</v>
       </c>
@@ -35678,7 +35680,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="579" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A579" s="10">
         <v>346</v>
       </c>
@@ -35730,7 +35732,7 @@
       <c r="R579" s="12"/>
       <c r="S579" s="12"/>
     </row>
-    <row r="580" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A580" s="10">
         <v>347</v>
       </c>
@@ -35782,7 +35784,7 @@
       <c r="R580" s="12"/>
       <c r="S580" s="12"/>
     </row>
-    <row r="581" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A581" s="10">
         <v>348</v>
       </c>
@@ -35834,7 +35836,7 @@
       <c r="R581" s="12"/>
       <c r="S581" s="12"/>
     </row>
-    <row r="582" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A582" s="10">
         <v>349</v>
       </c>
@@ -35886,7 +35888,7 @@
       <c r="R582" s="12"/>
       <c r="S582" s="12"/>
     </row>
-    <row r="583" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A583" s="10">
         <v>350</v>
       </c>
@@ -35938,7 +35940,7 @@
       <c r="R583" s="12"/>
       <c r="S583" s="12"/>
     </row>
-    <row r="584" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A584" s="10">
         <v>351</v>
       </c>
@@ -35993,7 +35995,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="585" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A585" s="10">
         <v>352</v>
       </c>
@@ -36045,7 +36047,7 @@
       <c r="R585" s="12"/>
       <c r="S585" s="12"/>
     </row>
-    <row r="586" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A586" s="10">
         <v>353</v>
       </c>
@@ -36097,7 +36099,7 @@
       <c r="R586" s="12"/>
       <c r="S586" s="12"/>
     </row>
-    <row r="587" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A587" s="10">
         <v>354</v>
       </c>
@@ -36149,7 +36151,7 @@
       <c r="R587" s="12"/>
       <c r="S587" s="12"/>
     </row>
-    <row r="588" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A588" s="10">
         <v>355</v>
       </c>
@@ -36201,7 +36203,7 @@
       <c r="R588" s="12"/>
       <c r="S588" s="12"/>
     </row>
-    <row r="589" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A589" s="10">
         <v>356</v>
       </c>
@@ -36253,7 +36255,7 @@
       <c r="R589" s="12"/>
       <c r="S589" s="12"/>
     </row>
-    <row r="590" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A590" s="10">
         <v>357</v>
       </c>
@@ -36305,7 +36307,7 @@
       <c r="R590" s="12"/>
       <c r="S590" s="12"/>
     </row>
-    <row r="591" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A591" s="10">
         <v>358</v>
       </c>
@@ -36357,7 +36359,7 @@
       <c r="R591" s="12"/>
       <c r="S591" s="12"/>
     </row>
-    <row r="592" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A592" s="10">
         <v>359</v>
       </c>
@@ -36409,7 +36411,7 @@
       <c r="R592" s="12"/>
       <c r="S592" s="12"/>
     </row>
-    <row r="593" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A593" s="10">
         <v>360</v>
       </c>
@@ -36461,7 +36463,7 @@
       <c r="R593" s="12"/>
       <c r="S593" s="12"/>
     </row>
-    <row r="594" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A594" s="10">
         <v>361</v>
       </c>
@@ -36516,7 +36518,7 @@
       <c r="R594" s="12"/>
       <c r="S594" s="12"/>
     </row>
-    <row r="595" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A595" s="10">
         <v>362</v>
       </c>
@@ -36574,7 +36576,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="596" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A596" s="10">
         <v>363</v>
       </c>
@@ -36629,7 +36631,7 @@
       <c r="R596" s="12"/>
       <c r="S596" s="12"/>
     </row>
-    <row r="597" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A597" s="10">
         <v>364</v>
       </c>
@@ -36684,7 +36686,7 @@
       <c r="R597" s="12"/>
       <c r="S597" s="12"/>
     </row>
-    <row r="598" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A598" s="10">
         <v>365</v>
       </c>
@@ -36739,7 +36741,7 @@
       <c r="R598" s="12"/>
       <c r="S598" s="12"/>
     </row>
-    <row r="599" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A599" s="10">
         <v>366</v>
       </c>
@@ -36794,7 +36796,7 @@
       <c r="R599" s="12"/>
       <c r="S599" s="12"/>
     </row>
-    <row r="600" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A600" s="10">
         <v>367</v>
       </c>
@@ -36849,7 +36851,7 @@
       <c r="R600" s="12"/>
       <c r="S600" s="12"/>
     </row>
-    <row r="601" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A601" s="10">
         <v>368</v>
       </c>
@@ -36904,7 +36906,7 @@
       <c r="R601" s="12"/>
       <c r="S601" s="12"/>
     </row>
-    <row r="602" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A602" s="10">
         <v>369</v>
       </c>
@@ -36962,7 +36964,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="603" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A603" s="10">
         <v>370</v>
       </c>
@@ -37017,7 +37019,7 @@
       <c r="R603" s="12"/>
       <c r="S603" s="12"/>
     </row>
-    <row r="604" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A604" s="10">
         <v>371</v>
       </c>
@@ -37072,7 +37074,7 @@
       <c r="R604" s="12"/>
       <c r="S604" s="12"/>
     </row>
-    <row r="605" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A605" s="10">
         <v>372</v>
       </c>
@@ -37127,7 +37129,7 @@
       <c r="R605" s="12"/>
       <c r="S605" s="12"/>
     </row>
-    <row r="606" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A606" s="10">
         <v>373</v>
       </c>
@@ -37182,7 +37184,7 @@
       <c r="R606" s="12"/>
       <c r="S606" s="12"/>
     </row>
-    <row r="607" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A607" s="10">
         <v>374</v>
       </c>
@@ -37237,7 +37239,7 @@
       <c r="R607" s="12"/>
       <c r="S607" s="12"/>
     </row>
-    <row r="608" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A608" s="10">
         <v>375</v>
       </c>
@@ -37292,7 +37294,7 @@
       <c r="R608" s="12"/>
       <c r="S608" s="12"/>
     </row>
-    <row r="609" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A609" s="10">
         <v>376</v>
       </c>
@@ -37347,7 +37349,7 @@
       <c r="R609" s="12"/>
       <c r="S609" s="12"/>
     </row>
-    <row r="610" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A610" s="10">
         <v>377</v>
       </c>
@@ -37402,7 +37404,7 @@
       <c r="R610" s="12"/>
       <c r="S610" s="12"/>
     </row>
-    <row r="611" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A611" s="10">
         <v>378</v>
       </c>
@@ -37457,7 +37459,7 @@
       <c r="R611" s="12"/>
       <c r="S611" s="12"/>
     </row>
-    <row r="612" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A612" s="10">
         <v>379</v>
       </c>
@@ -37512,7 +37514,7 @@
       <c r="R612" s="12"/>
       <c r="S612" s="12"/>
     </row>
-    <row r="613" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A613" s="10">
         <v>380</v>
       </c>
@@ -37567,7 +37569,7 @@
       <c r="R613" s="12"/>
       <c r="S613" s="12"/>
     </row>
-    <row r="614" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A614" s="10">
         <v>381</v>
       </c>
@@ -37622,7 +37624,7 @@
       <c r="R614" s="12"/>
       <c r="S614" s="12"/>
     </row>
-    <row r="615" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A615" s="10">
         <v>382</v>
       </c>
@@ -37677,7 +37679,7 @@
       <c r="R615" s="12"/>
       <c r="S615" s="12"/>
     </row>
-    <row r="616" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A616" s="10">
         <v>383</v>
       </c>
@@ -37732,7 +37734,7 @@
       <c r="R616" s="12"/>
       <c r="S616" s="12"/>
     </row>
-    <row r="617" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A617" s="10">
         <v>384</v>
       </c>
@@ -37787,7 +37789,7 @@
       <c r="R617" s="12"/>
       <c r="S617" s="12"/>
     </row>
-    <row r="618" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A618" s="10">
         <v>385</v>
       </c>
@@ -37842,7 +37844,7 @@
       <c r="R618" s="12"/>
       <c r="S618" s="12"/>
     </row>
-    <row r="619" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A619" s="10">
         <v>386</v>
       </c>
@@ -37897,7 +37899,7 @@
       <c r="R619" s="12"/>
       <c r="S619" s="12"/>
     </row>
-    <row r="620" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A620" s="10">
         <v>387</v>
       </c>
@@ -37952,7 +37954,7 @@
       <c r="R620" s="12"/>
       <c r="S620" s="12"/>
     </row>
-    <row r="621" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A621" s="10">
         <v>388</v>
       </c>
@@ -38007,7 +38009,7 @@
       <c r="R621" s="12"/>
       <c r="S621" s="12"/>
     </row>
-    <row r="622" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A622" s="10">
         <v>389</v>
       </c>
@@ -38062,7 +38064,7 @@
       <c r="R622" s="12"/>
       <c r="S622" s="12"/>
     </row>
-    <row r="623" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A623" s="10">
         <v>390</v>
       </c>
@@ -38117,7 +38119,7 @@
       <c r="R623" s="12"/>
       <c r="S623" s="12"/>
     </row>
-    <row r="624" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A624" s="10">
         <v>391</v>
       </c>
@@ -38172,7 +38174,7 @@
       <c r="R624" s="12"/>
       <c r="S624" s="12"/>
     </row>
-    <row r="625" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A625" s="10">
         <v>392</v>
       </c>
@@ -38227,7 +38229,7 @@
       <c r="R625" s="12"/>
       <c r="S625" s="12"/>
     </row>
-    <row r="626" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A626" s="10">
         <v>393</v>
       </c>
@@ -38279,7 +38281,7 @@
       <c r="R626" s="12"/>
       <c r="S626" s="12"/>
     </row>
-    <row r="627" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A627" s="10">
         <v>394</v>
       </c>
@@ -38331,7 +38333,7 @@
       <c r="R627" s="12"/>
       <c r="S627" s="12"/>
     </row>
-    <row r="628" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A628" s="10">
         <v>395</v>
       </c>
@@ -38383,7 +38385,7 @@
       <c r="R628" s="12"/>
       <c r="S628" s="12"/>
     </row>
-    <row r="629" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A629" s="10">
         <v>396</v>
       </c>
@@ -38435,7 +38437,7 @@
       <c r="R629" s="12"/>
       <c r="S629" s="12"/>
     </row>
-    <row r="630" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A630" s="10">
         <v>397</v>
       </c>
@@ -38487,7 +38489,7 @@
       <c r="R630" s="12"/>
       <c r="S630" s="12"/>
     </row>
-    <row r="631" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A631" s="10">
         <v>398</v>
       </c>
@@ -38539,7 +38541,7 @@
       <c r="R631" s="12"/>
       <c r="S631" s="12"/>
     </row>
-    <row r="632" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A632" s="10">
         <v>399</v>
       </c>
@@ -38591,7 +38593,7 @@
       <c r="R632" s="12"/>
       <c r="S632" s="12"/>
     </row>
-    <row r="633" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A633" s="10">
         <v>400</v>
       </c>
@@ -38643,7 +38645,7 @@
       <c r="R633" s="12"/>
       <c r="S633" s="12"/>
     </row>
-    <row r="634" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A634" s="10">
         <v>401</v>
       </c>
@@ -38695,7 +38697,7 @@
       <c r="R634" s="12"/>
       <c r="S634" s="12"/>
     </row>
-    <row r="635" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A635" s="10">
         <v>402</v>
       </c>
@@ -38747,7 +38749,7 @@
       <c r="R635" s="12"/>
       <c r="S635" s="12"/>
     </row>
-    <row r="636" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A636" s="10">
         <v>403</v>
       </c>
@@ -38799,7 +38801,7 @@
       <c r="R636" s="12"/>
       <c r="S636" s="12"/>
     </row>
-    <row r="637" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A637" s="10">
         <v>404</v>
       </c>
@@ -38851,7 +38853,7 @@
       <c r="R637" s="12"/>
       <c r="S637" s="12"/>
     </row>
-    <row r="638" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A638" s="10">
         <v>405</v>
       </c>
@@ -38903,7 +38905,7 @@
       <c r="R638" s="12"/>
       <c r="S638" s="12"/>
     </row>
-    <row r="639" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A639" s="10">
         <v>406</v>
       </c>
@@ -38955,7 +38957,7 @@
       <c r="R639" s="12"/>
       <c r="S639" s="12"/>
     </row>
-    <row r="640" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A640" s="10">
         <v>407</v>
       </c>
@@ -39007,7 +39009,7 @@
       <c r="R640" s="12"/>
       <c r="S640" s="12"/>
     </row>
-    <row r="641" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A641" s="10">
         <v>408</v>
       </c>
@@ -39059,7 +39061,7 @@
       <c r="R641" s="12"/>
       <c r="S641" s="12"/>
     </row>
-    <row r="642" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A642" s="10">
         <v>409</v>
       </c>
@@ -39111,7 +39113,7 @@
       <c r="R642" s="12"/>
       <c r="S642" s="12"/>
     </row>
-    <row r="643" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A643" s="10">
         <v>410</v>
       </c>
@@ -39163,7 +39165,7 @@
       <c r="R643" s="12"/>
       <c r="S643" s="12"/>
     </row>
-    <row r="644" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A644" s="10">
         <v>411</v>
       </c>
@@ -39215,7 +39217,7 @@
       <c r="R644" s="12"/>
       <c r="S644" s="12"/>
     </row>
-    <row r="645" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A645" s="10">
         <v>412</v>
       </c>
@@ -39267,7 +39269,7 @@
       <c r="R645" s="12"/>
       <c r="S645" s="12"/>
     </row>
-    <row r="646" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A646" s="10">
         <v>413</v>
       </c>
@@ -39319,7 +39321,7 @@
       <c r="R646" s="12"/>
       <c r="S646" s="12"/>
     </row>
-    <row r="647" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A647" s="10">
         <v>414</v>
       </c>
@@ -39371,7 +39373,7 @@
       <c r="R647" s="12"/>
       <c r="S647" s="12"/>
     </row>
-    <row r="648" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A648" s="10">
         <v>415</v>
       </c>
@@ -39423,7 +39425,7 @@
       <c r="R648" s="12"/>
       <c r="S648" s="12"/>
     </row>
-    <row r="649" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A649" s="10">
         <v>416</v>
       </c>
@@ -39475,7 +39477,7 @@
       <c r="R649" s="12"/>
       <c r="S649" s="12"/>
     </row>
-    <row r="650" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A650" s="10">
         <v>417</v>
       </c>
@@ -39527,7 +39529,7 @@
       <c r="R650" s="12"/>
       <c r="S650" s="12"/>
     </row>
-    <row r="651" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A651" s="10">
         <v>418</v>
       </c>
@@ -39579,7 +39581,7 @@
       <c r="R651" s="12"/>
       <c r="S651" s="12"/>
     </row>
-    <row r="652" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A652" s="10">
         <v>419</v>
       </c>
@@ -39631,7 +39633,7 @@
       <c r="R652" s="12"/>
       <c r="S652" s="12"/>
     </row>
-    <row r="653" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A653" s="10">
         <v>420</v>
       </c>
@@ -39683,7 +39685,7 @@
       <c r="R653" s="12"/>
       <c r="S653" s="12"/>
     </row>
-    <row r="654" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A654" s="10">
         <v>421</v>
       </c>
@@ -39735,7 +39737,7 @@
       <c r="R654" s="12"/>
       <c r="S654" s="12"/>
     </row>
-    <row r="655" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A655" s="10">
         <v>422</v>
       </c>
@@ -39787,7 +39789,7 @@
       <c r="R655" s="12"/>
       <c r="S655" s="12"/>
     </row>
-    <row r="656" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A656" s="10">
         <v>423</v>
       </c>
@@ -39839,7 +39841,7 @@
       <c r="R656" s="12"/>
       <c r="S656" s="12"/>
     </row>
-    <row r="657" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A657" s="10">
         <v>424</v>
       </c>
@@ -39891,7 +39893,7 @@
       <c r="R657" s="12"/>
       <c r="S657" s="12"/>
     </row>
-    <row r="658" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A658" s="10">
         <v>425</v>
       </c>
@@ -40001,7 +40003,7 @@
       <c r="R659" s="12"/>
       <c r="S659" s="12"/>
     </row>
-    <row r="660" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A660" s="10">
         <v>426</v>
       </c>
@@ -40111,7 +40113,7 @@
       <c r="R661" s="12"/>
       <c r="S661" s="12"/>
     </row>
-    <row r="662" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A662" s="10">
         <v>427</v>
       </c>
@@ -40224,7 +40226,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="664" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A664" s="10">
         <v>428</v>
       </c>
@@ -40337,7 +40339,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="666" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A666" s="10">
         <v>429</v>
       </c>
@@ -40447,7 +40449,7 @@
       <c r="R667" s="12"/>
       <c r="S667" s="12"/>
     </row>
-    <row r="668" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A668" s="10">
         <v>430</v>
       </c>
@@ -40557,7 +40559,7 @@
       <c r="R669" s="12"/>
       <c r="S669" s="12"/>
     </row>
-    <row r="670" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A670" s="10">
         <v>431</v>
       </c>
@@ -40667,7 +40669,7 @@
       <c r="R671" s="12"/>
       <c r="S671" s="12"/>
     </row>
-    <row r="672" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A672" s="10">
         <v>432</v>
       </c>
@@ -40777,7 +40779,7 @@
       <c r="R673" s="12"/>
       <c r="S673" s="12"/>
     </row>
-    <row r="674" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A674" s="10">
         <v>433</v>
       </c>
@@ -40887,7 +40889,7 @@
       <c r="R675" s="12"/>
       <c r="S675" s="12"/>
     </row>
-    <row r="676" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A676" s="10">
         <v>434</v>
       </c>
@@ -40997,7 +40999,7 @@
       <c r="R677" s="12"/>
       <c r="S677" s="12"/>
     </row>
-    <row r="678" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A678" s="10">
         <v>435</v>
       </c>
@@ -41107,7 +41109,7 @@
       <c r="R679" s="12"/>
       <c r="S679" s="12"/>
     </row>
-    <row r="680" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A680" s="10">
         <v>436</v>
       </c>
@@ -41217,7 +41219,7 @@
       <c r="R681" s="12"/>
       <c r="S681" s="12"/>
     </row>
-    <row r="682" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A682" s="10">
         <v>437</v>
       </c>
@@ -41327,7 +41329,7 @@
       <c r="R683" s="12"/>
       <c r="S683" s="12"/>
     </row>
-    <row r="684" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A684" s="10">
         <v>438</v>
       </c>
@@ -41437,7 +41439,7 @@
       <c r="R685" s="12"/>
       <c r="S685" s="12"/>
     </row>
-    <row r="686" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A686" s="10">
         <v>439</v>
       </c>
@@ -41547,7 +41549,7 @@
       <c r="R687" s="12"/>
       <c r="S687" s="12"/>
     </row>
-    <row r="688" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A688" s="10">
         <v>440</v>
       </c>
@@ -41657,7 +41659,7 @@
       <c r="R689" s="12"/>
       <c r="S689" s="12"/>
     </row>
-    <row r="690" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A690" s="10">
         <v>441</v>
       </c>
@@ -41767,7 +41769,7 @@
       <c r="R691" s="12"/>
       <c r="S691" s="12"/>
     </row>
-    <row r="692" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A692" s="10">
         <v>442</v>
       </c>
@@ -41877,7 +41879,7 @@
       <c r="R693" s="12"/>
       <c r="S693" s="12"/>
     </row>
-    <row r="694" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A694" s="10">
         <v>443</v>
       </c>
@@ -41987,7 +41989,7 @@
       <c r="R695" s="12"/>
       <c r="S695" s="12"/>
     </row>
-    <row r="696" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A696" s="10">
         <v>444</v>
       </c>
@@ -42097,7 +42099,7 @@
       <c r="R697" s="12"/>
       <c r="S697" s="12"/>
     </row>
-    <row r="698" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A698" s="10">
         <v>445</v>
       </c>
@@ -42207,7 +42209,7 @@
       <c r="R699" s="12"/>
       <c r="S699" s="12"/>
     </row>
-    <row r="700" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A700" s="10">
         <v>446</v>
       </c>
@@ -42317,7 +42319,7 @@
       <c r="R701" s="12"/>
       <c r="S701" s="12"/>
     </row>
-    <row r="702" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A702" s="10">
         <v>447</v>
       </c>
@@ -42427,7 +42429,7 @@
       <c r="R703" s="12"/>
       <c r="S703" s="12"/>
     </row>
-    <row r="704" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A704" s="10">
         <v>448</v>
       </c>
@@ -42537,7 +42539,7 @@
       <c r="R705" s="12"/>
       <c r="S705" s="12"/>
     </row>
-    <row r="706" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A706" s="10">
         <v>449</v>
       </c>
@@ -42647,7 +42649,7 @@
       <c r="R707" s="12"/>
       <c r="S707" s="12"/>
     </row>
-    <row r="708" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A708" s="10">
         <v>450</v>
       </c>
@@ -42757,7 +42759,7 @@
       <c r="R709" s="12"/>
       <c r="S709" s="12"/>
     </row>
-    <row r="710" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A710" s="10">
         <v>451</v>
       </c>
@@ -42867,7 +42869,7 @@
       <c r="R711" s="12"/>
       <c r="S711" s="12"/>
     </row>
-    <row r="712" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A712" s="10">
         <v>452</v>
       </c>
@@ -42977,7 +42979,7 @@
       <c r="R713" s="12"/>
       <c r="S713" s="12"/>
     </row>
-    <row r="714" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A714" s="10">
         <v>453</v>
       </c>
@@ -43087,7 +43089,7 @@
       <c r="R715" s="12"/>
       <c r="S715" s="12"/>
     </row>
-    <row r="716" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A716" s="10">
         <v>454</v>
       </c>
@@ -43197,7 +43199,7 @@
       <c r="R717" s="12"/>
       <c r="S717" s="12"/>
     </row>
-    <row r="718" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A718" s="10">
         <v>455</v>
       </c>
@@ -43307,7 +43309,7 @@
       <c r="R719" s="12"/>
       <c r="S719" s="12"/>
     </row>
-    <row r="720" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A720" s="10">
         <v>456</v>
       </c>
@@ -43423,7 +43425,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="722" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A722" s="10">
         <v>457</v>
       </c>
@@ -43527,7 +43529,7 @@
       <c r="R723" s="12"/>
       <c r="S723" s="12"/>
     </row>
-    <row r="724" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A724" s="10">
         <v>458</v>
       </c>
@@ -43631,7 +43633,7 @@
       <c r="R725" s="12"/>
       <c r="S725" s="12"/>
     </row>
-    <row r="726" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A726" s="10">
         <v>459</v>
       </c>
@@ -43735,7 +43737,7 @@
       <c r="R727" s="12"/>
       <c r="S727" s="12"/>
     </row>
-    <row r="728" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A728" s="10">
         <v>460</v>
       </c>
@@ -43839,7 +43841,7 @@
       <c r="R729" s="12"/>
       <c r="S729" s="12"/>
     </row>
-    <row r="730" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A730" s="10">
         <v>461</v>
       </c>
@@ -43943,7 +43945,7 @@
       <c r="R731" s="12"/>
       <c r="S731" s="12"/>
     </row>
-    <row r="732" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A732" s="10">
         <v>462</v>
       </c>
@@ -44053,7 +44055,7 @@
       <c r="R733" s="12"/>
       <c r="S733" s="12"/>
     </row>
-    <row r="734" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A734" s="10">
         <v>463</v>
       </c>
@@ -44157,7 +44159,7 @@
       <c r="R735" s="12"/>
       <c r="S735" s="12"/>
     </row>
-    <row r="736" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A736" s="10">
         <v>464</v>
       </c>
@@ -44313,7 +44315,7 @@
       <c r="R738" s="12"/>
       <c r="S738" s="12"/>
     </row>
-    <row r="739" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A739" s="10">
         <v>465</v>
       </c>
@@ -44368,7 +44370,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="740" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A740" s="10">
         <v>466</v>
       </c>
@@ -44472,7 +44474,7 @@
       <c r="R741" s="12"/>
       <c r="S741" s="12"/>
     </row>
-    <row r="742" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A742" s="10">
         <v>467</v>
       </c>
@@ -44637,7 +44639,7 @@
       <c r="R744" s="12"/>
       <c r="S744" s="12"/>
     </row>
-    <row r="745" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A745" s="10">
         <v>468</v>
       </c>
@@ -44695,7 +44697,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="746" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A746" s="10">
         <v>469</v>
       </c>
@@ -44869,7 +44871,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="749" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A749" s="10">
         <v>470</v>
       </c>
@@ -44979,7 +44981,7 @@
       <c r="R750" s="12"/>
       <c r="S750" s="12"/>
     </row>
-    <row r="751" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A751" s="10">
         <v>471</v>
       </c>
@@ -45089,7 +45091,7 @@
       <c r="R752" s="12"/>
       <c r="S752" s="12"/>
     </row>
-    <row r="753" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A753" s="10">
         <v>472</v>
       </c>
@@ -45147,7 +45149,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="754" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A754" s="10">
         <v>473</v>
       </c>
@@ -45312,7 +45314,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="757" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A757" s="10">
         <v>474</v>
       </c>
@@ -45367,7 +45369,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="758" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A758" s="10">
         <v>475</v>
       </c>
@@ -45483,7 +45485,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="760" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A760" s="10">
         <v>476</v>
       </c>
@@ -45594,7 +45596,7 @@
       <c r="R761" s="12"/>
       <c r="S761" s="12"/>
     </row>
-    <row r="762" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A762" s="10">
         <v>477</v>
       </c>
@@ -45704,7 +45706,7 @@
       <c r="R763" s="12"/>
       <c r="S763" s="12"/>
     </row>
-    <row r="764" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A764" s="10">
         <v>478</v>
       </c>
@@ -45869,7 +45871,7 @@
       <c r="R766" s="12"/>
       <c r="S766" s="12"/>
     </row>
-    <row r="767" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A767" s="10">
         <v>479</v>
       </c>
@@ -45927,7 +45929,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="768" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A768" s="10">
         <v>480</v>
       </c>
@@ -46040,7 +46042,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="770" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A770" s="10">
         <v>481</v>
       </c>
@@ -46150,7 +46152,7 @@
       <c r="R771" s="12"/>
       <c r="S771" s="12"/>
     </row>
-    <row r="772" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A772" s="10">
         <v>482</v>
       </c>
@@ -46266,7 +46268,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="774" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A774" s="10">
         <v>483</v>
       </c>
@@ -46434,7 +46436,7 @@
       <c r="R776" s="12"/>
       <c r="S776" s="12"/>
     </row>
-    <row r="777" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A777" s="10">
         <v>484</v>
       </c>
@@ -46547,7 +46549,7 @@
       <c r="R778" s="12"/>
       <c r="S778" s="12"/>
     </row>
-    <row r="779" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A779" s="10">
         <v>485</v>
       </c>
@@ -46605,7 +46607,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="780" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A780" s="10">
         <v>486</v>
       </c>
@@ -46721,7 +46723,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="782" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A782" s="10">
         <v>487</v>
       </c>
@@ -46891,7 +46893,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="785" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A785" s="10">
         <v>488</v>
       </c>
@@ -46946,7 +46948,7 @@
       <c r="R785" s="12"/>
       <c r="S785" s="12"/>
     </row>
-    <row r="786" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A786" s="10">
         <v>489</v>
       </c>
@@ -47056,7 +47058,7 @@
       <c r="R787" s="12"/>
       <c r="S787" s="12"/>
     </row>
-    <row r="788" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A788" s="10">
         <v>490</v>
       </c>
@@ -47166,7 +47168,7 @@
       <c r="R789" s="12"/>
       <c r="S789" s="12"/>
     </row>
-    <row r="790" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A790" s="10">
         <v>491</v>
       </c>
@@ -47334,7 +47336,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="793" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A793" s="10">
         <v>492</v>
       </c>
@@ -47392,7 +47394,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="794" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A794" s="10">
         <v>493</v>
       </c>
@@ -47508,7 +47510,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="796" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A796" s="10">
         <v>494</v>
       </c>
@@ -47618,7 +47620,7 @@
       <c r="R797" s="12"/>
       <c r="S797" s="12"/>
     </row>
-    <row r="798" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A798" s="10">
         <v>495</v>
       </c>
@@ -47734,7 +47736,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="800" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A800" s="10">
         <v>496</v>
       </c>
@@ -47850,7 +47852,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="802" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A802" s="10">
         <v>497</v>
       </c>
@@ -47962,7 +47964,7 @@
       <c r="R803" s="12"/>
       <c r="S803" s="12"/>
     </row>
-    <row r="804" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A804" s="10">
         <v>498</v>
       </c>
@@ -48078,7 +48080,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="806" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A806" s="10">
         <v>499</v>
       </c>
@@ -48234,7 +48236,7 @@
       <c r="R808" s="12"/>
       <c r="S808" s="12"/>
     </row>
-    <row r="809" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A809" s="10">
         <v>500</v>
       </c>
@@ -48289,7 +48291,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="810" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A810" s="10">
         <v>501</v>
       </c>
@@ -48399,7 +48401,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="812" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A812" s="10">
         <v>502</v>
       </c>
@@ -48561,7 +48563,7 @@
       <c r="R814" s="12"/>
       <c r="S814" s="12"/>
     </row>
-    <row r="815" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A815" s="10">
         <v>503</v>
       </c>
@@ -48616,7 +48618,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="816" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A816" s="10">
         <v>504</v>
       </c>
@@ -48720,7 +48722,7 @@
       <c r="R817" s="12"/>
       <c r="S817" s="12"/>
     </row>
-    <row r="818" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A818" s="10">
         <v>505</v>
       </c>
@@ -48824,7 +48826,7 @@
       <c r="R819" s="12"/>
       <c r="S819" s="12"/>
     </row>
-    <row r="820" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A820" s="10">
         <v>506</v>
       </c>
@@ -48940,7 +48942,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="822" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A822" s="10">
         <v>507</v>
       </c>
@@ -49050,7 +49052,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="824" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A824" s="10">
         <v>508</v>
       </c>
@@ -49154,7 +49156,7 @@
       <c r="R825" s="12"/>
       <c r="S825" s="12"/>
     </row>
-    <row r="826" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A826" s="10">
         <v>509</v>
       </c>
@@ -49258,7 +49260,7 @@
       <c r="R827" s="12"/>
       <c r="S827" s="12"/>
     </row>
-    <row r="828" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A828" s="10">
         <v>510</v>
       </c>
@@ -49362,7 +49364,7 @@
       <c r="R829" s="12"/>
       <c r="S829" s="12"/>
     </row>
-    <row r="830" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A830" s="10">
         <v>511</v>
       </c>
@@ -49466,7 +49468,7 @@
       <c r="R831" s="12"/>
       <c r="S831" s="12"/>
     </row>
-    <row r="832" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A832" s="10">
         <v>512</v>
       </c>
@@ -49576,7 +49578,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="834" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A834" s="10">
         <v>513</v>
       </c>
@@ -49680,7 +49682,7 @@
       <c r="R835" s="12"/>
       <c r="S835" s="12"/>
     </row>
-    <row r="836" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A836" s="10">
         <v>514</v>
       </c>
@@ -49790,7 +49792,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="838" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A838" s="10">
         <v>515</v>
       </c>
@@ -49894,7 +49896,7 @@
       <c r="R839" s="12"/>
       <c r="S839" s="12"/>
     </row>
-    <row r="840" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A840" s="10">
         <v>516</v>
       </c>
@@ -49998,7 +50000,7 @@
       <c r="R841" s="12"/>
       <c r="S841" s="12"/>
     </row>
-    <row r="842" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A842" s="10">
         <v>517</v>
       </c>
@@ -50102,7 +50104,7 @@
       <c r="R843" s="12"/>
       <c r="S843" s="12"/>
     </row>
-    <row r="844" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A844" s="10">
         <v>518</v>
       </c>
@@ -50206,7 +50208,7 @@
       <c r="R845" s="12"/>
       <c r="S845" s="12"/>
     </row>
-    <row r="846" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A846" s="10">
         <v>519</v>
       </c>
@@ -50310,7 +50312,7 @@
       <c r="R847" s="12"/>
       <c r="S847" s="12"/>
     </row>
-    <row r="848" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A848" s="10">
         <v>520</v>
       </c>
@@ -50414,7 +50416,7 @@
       <c r="R849" s="12"/>
       <c r="S849" s="12"/>
     </row>
-    <row r="850" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A850" s="10">
         <v>521</v>
       </c>
@@ -50518,7 +50520,7 @@
       <c r="R851" s="12"/>
       <c r="S851" s="12"/>
     </row>
-    <row r="852" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A852" s="10">
         <v>522</v>
       </c>
@@ -50622,7 +50624,7 @@
       <c r="R853" s="12"/>
       <c r="S853" s="12"/>
     </row>
-    <row r="854" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A854" s="10">
         <v>523</v>
       </c>
@@ -50726,7 +50728,7 @@
       <c r="R855" s="12"/>
       <c r="S855" s="12"/>
     </row>
-    <row r="856" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A856" s="10">
         <v>524</v>
       </c>
@@ -50830,7 +50832,7 @@
       <c r="R857" s="12"/>
       <c r="S857" s="12"/>
     </row>
-    <row r="858" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A858" s="10">
         <v>525</v>
       </c>
@@ -50934,7 +50936,7 @@
       <c r="R859" s="12"/>
       <c r="S859" s="12"/>
     </row>
-    <row r="860" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A860" s="10">
         <v>526</v>
       </c>
@@ -51038,7 +51040,7 @@
       <c r="R861" s="12"/>
       <c r="S861" s="12"/>
     </row>
-    <row r="862" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A862" s="10">
         <v>527</v>
       </c>
@@ -51148,7 +51150,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="864" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A864" s="10">
         <v>528</v>
       </c>
@@ -51261,7 +51263,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="866" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A866" s="10">
         <v>529</v>
       </c>
@@ -51365,7 +51367,7 @@
       <c r="R867" s="12"/>
       <c r="S867" s="12"/>
     </row>
-    <row r="868" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A868" s="10">
         <v>530</v>
       </c>
@@ -51475,7 +51477,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="870" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A870" s="10">
         <v>531</v>
       </c>
@@ -51575,7 +51577,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="872" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A872" s="10">
         <v>532</v>
       </c>
@@ -51675,7 +51677,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="874" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A874" s="10">
         <v>533</v>
       </c>
@@ -51775,7 +51777,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="876" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A876" s="10">
         <v>534</v>
       </c>
@@ -51875,7 +51877,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="878" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A878" s="10">
         <v>535</v>
       </c>
@@ -51975,7 +51977,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="880" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A880" s="10">
         <v>536</v>
       </c>
@@ -52075,7 +52077,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="882" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A882" s="10">
         <v>537</v>
       </c>
@@ -52175,7 +52177,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="884" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A884" s="10">
         <v>538</v>
       </c>
@@ -52269,7 +52271,7 @@
         <v>0.37129468814568145</v>
       </c>
     </row>
-    <row r="886" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A886" s="10">
         <v>539</v>
       </c>
@@ -52363,7 +52365,7 @@
         <v>0.39551351773046595</v>
       </c>
     </row>
-    <row r="888" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A888" s="10">
         <v>540</v>
       </c>
@@ -52504,7 +52506,7 @@
         <v>0.57496958205982795</v>
       </c>
     </row>
-    <row r="891" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A891" s="10">
         <v>541</v>
       </c>
@@ -52554,7 +52556,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="892" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A892" s="10">
         <v>542</v>
       </c>
@@ -52695,7 +52697,7 @@
         <v>0.54610729266743441</v>
       </c>
     </row>
-    <row r="895" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A895" s="10">
         <v>543</v>
       </c>
@@ -52745,7 +52747,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="896" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A896" s="10">
         <v>544</v>
       </c>
@@ -52839,7 +52841,7 @@
         <v>0.314025350518503</v>
       </c>
     </row>
-    <row r="898" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A898" s="10">
         <v>545</v>
       </c>
@@ -52933,7 +52935,7 @@
         <v>0.40689454667068425</v>
       </c>
     </row>
-    <row r="900" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A900" s="10">
         <v>546</v>
       </c>
@@ -53027,7 +53029,7 @@
         <v>0.43257014795981674</v>
       </c>
     </row>
-    <row r="902" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A902" s="10">
         <v>547</v>
       </c>
@@ -53121,7 +53123,7 @@
         <v>0.40370785856742314</v>
       </c>
     </row>
-    <row r="904" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A904" s="10">
         <v>548</v>
       </c>
@@ -53215,7 +53217,7 @@
         <v>0.56331540842504446</v>
       </c>
     </row>
-    <row r="906" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A906" s="10">
         <v>549</v>
       </c>
@@ -53309,7 +53311,7 @@
         <v>0.59436285537395994</v>
       </c>
     </row>
-    <row r="908" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A908" s="10">
         <v>550</v>
       </c>
@@ -53403,7 +53405,7 @@
         <v>0.47754797433155938</v>
       </c>
     </row>
-    <row r="910" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A910" s="10">
         <v>551</v>
       </c>
@@ -53497,7 +53499,7 @@
         <v>0.45178132481090522</v>
       </c>
     </row>
-    <row r="912" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A912" s="10">
         <v>552</v>
       </c>
@@ -53591,7 +53593,7 @@
         <v>0.47290451452395033</v>
       </c>
     </row>
-    <row r="914" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A914" s="10">
         <v>553</v>
       </c>
@@ -53685,7 +53687,7 @@
         <v>0.28534515758915296</v>
       </c>
     </row>
-    <row r="916" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A916" s="10">
         <v>554</v>
       </c>
@@ -53779,7 +53781,7 @@
         <v>0.40543777496633632</v>
       </c>
     </row>
-    <row r="918" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A918" s="10">
         <v>555</v>
       </c>
@@ -53873,7 +53875,7 @@
         <v>0.52170636661960634</v>
       </c>
     </row>
-    <row r="920" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A920" s="10">
         <v>556</v>
       </c>
@@ -53967,7 +53969,7 @@
         <v>0.27651347913154356</v>
       </c>
     </row>
-    <row r="922" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A922" s="10">
         <v>557</v>
       </c>
@@ -54061,7 +54063,7 @@
         <v>0.47117459812503715</v>
       </c>
     </row>
-    <row r="924" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A924" s="10">
         <v>558</v>
       </c>
@@ -54155,7 +54157,7 @@
         <v>0.40507358204024935</v>
       </c>
     </row>
-    <row r="926" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A926" s="10">
         <v>559</v>
       </c>
@@ -54249,7 +54251,7 @@
         <v>0.30701463669132856</v>
       </c>
     </row>
-    <row r="928" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A928" s="10">
         <v>560</v>
       </c>
@@ -54343,7 +54345,7 @@
         <v>0.48501392931634257</v>
       </c>
     </row>
-    <row r="930" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A930" s="10">
         <v>561</v>
       </c>
@@ -54437,7 +54439,7 @@
         <v>0.4527828553576444</v>
       </c>
     </row>
-    <row r="932" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A932" s="10">
         <v>562</v>
       </c>
@@ -54531,7 +54533,7 @@
         <v>0.47272241806090687</v>
       </c>
     </row>
-    <row r="934" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A934" s="10">
         <v>563</v>
       </c>
@@ -54625,7 +54627,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="936" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A936" s="10">
         <v>564</v>
       </c>
@@ -54719,7 +54721,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="938" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A938" s="10">
         <v>565</v>
       </c>
@@ -54813,7 +54815,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="940" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A940" s="10">
         <v>566</v>
       </c>
@@ -54907,7 +54909,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="942" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A942" s="10">
         <v>567</v>
       </c>
@@ -55001,7 +55003,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="944" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A944" s="10">
         <v>568</v>
       </c>
@@ -55095,7 +55097,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="946" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A946" s="10">
         <v>569</v>
       </c>
@@ -55189,7 +55191,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="948" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A948" s="10">
         <v>570</v>
       </c>
@@ -55283,7 +55285,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="950" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A950" s="10">
         <v>571</v>
       </c>
@@ -55377,7 +55379,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="952" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A952" s="10">
         <v>572</v>
       </c>
@@ -55471,7 +55473,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="954" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A954" s="10">
         <v>573</v>
       </c>
@@ -55571,7 +55573,7 @@
         <v>1.9929547397795051</v>
       </c>
     </row>
-    <row r="956" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A956" s="10">
         <v>574</v>
       </c>
@@ -55665,7 +55667,7 @@
         <v>2.1620313057153879</v>
       </c>
     </row>
-    <row r="958" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A958" s="10">
         <v>575</v>
       </c>
@@ -55759,7 +55761,7 @@
         <v>1.1199842959490014</v>
       </c>
     </row>
-    <row r="960" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A960" s="10">
         <v>576</v>
       </c>
@@ -55853,7 +55855,7 @@
         <v>1.1247188039881322</v>
       </c>
     </row>
-    <row r="962" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A962" s="10">
         <v>577</v>
       </c>
@@ -55947,7 +55949,7 @@
         <v>1.5710372349077326</v>
       </c>
     </row>
-    <row r="964" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A964" s="10">
         <v>578</v>
       </c>
@@ -56041,7 +56043,7 @@
         <v>1.8199630998881871</v>
       </c>
     </row>
-    <row r="966" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A966" s="10">
         <v>579</v>
       </c>
@@ -56135,7 +56137,7 @@
         <v>2.1635791256512578</v>
       </c>
     </row>
-    <row r="968" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A968" s="10">
         <v>580</v>
       </c>
@@ -56232,7 +56234,7 @@
         <v>1.6799309198077412</v>
       </c>
     </row>
-    <row r="970" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A970" s="10">
         <v>581</v>
       </c>
@@ -56326,7 +56328,7 @@
         <v>1.2900623924316235</v>
       </c>
     </row>
-    <row r="972" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A972" s="10">
         <v>582</v>
       </c>
@@ -56420,7 +56422,7 @@
         <v>1.1777088747337885</v>
       </c>
     </row>
-    <row r="974" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A974" s="10">
         <v>583</v>
       </c>
@@ -56514,7 +56516,7 @@
         <v>1.7740747912012269</v>
       </c>
     </row>
-    <row r="976" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A976" s="10">
         <v>584</v>
       </c>
@@ -56608,7 +56610,7 @@
         <v>1.2972552027218414</v>
       </c>
     </row>
-    <row r="978" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A978" s="10">
         <v>585</v>
       </c>
@@ -56702,7 +56704,7 @@
         <v>1.2044770548011818</v>
       </c>
     </row>
-    <row r="980" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A980" s="10">
         <v>586</v>
       </c>
@@ -56796,7 +56798,7 @@
         <v>1.1607739036707436</v>
       </c>
     </row>
-    <row r="982" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A982" s="10">
         <v>587</v>
       </c>
@@ -56890,7 +56892,7 @@
         <v>0.86614182646637261</v>
       </c>
     </row>
-    <row r="984" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A984" s="10">
         <v>588</v>
       </c>
@@ -56984,7 +56986,7 @@
         <v>1.1782551641229191</v>
       </c>
     </row>
-    <row r="986" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A986" s="10">
         <v>589</v>
       </c>
@@ -57081,7 +57083,7 @@
         <v>1.1853569261816153</v>
       </c>
     </row>
-    <row r="988" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A988" s="10">
         <v>590</v>
       </c>
@@ -57175,7 +57177,7 @@
         <v>0.86641497116093791</v>
       </c>
     </row>
-    <row r="990" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A990" s="10">
         <v>591</v>
       </c>
@@ -57269,7 +57271,7 @@
         <v>0.91294061746855026</v>
       </c>
     </row>
-    <row r="992" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A992" s="10">
         <v>592</v>
       </c>
@@ -57363,7 +57365,7 @@
         <v>1.0689972862968233</v>
       </c>
     </row>
-    <row r="994" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A994" s="10">
         <v>593</v>
       </c>
@@ -57457,7 +57459,7 @@
         <v>0.95509594866311875</v>
       </c>
     </row>
-    <row r="996" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A996" s="10">
         <v>594</v>
       </c>
@@ -57551,7 +57553,7 @@
         <v>0.91822141489681153</v>
       </c>
     </row>
-    <row r="998" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A998" s="10">
         <v>595</v>
       </c>
@@ -57645,7 +57647,7 @@
         <v>1.3365880387392359</v>
       </c>
     </row>
-    <row r="1000" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1000" s="10">
         <v>596</v>
       </c>
@@ -57739,7 +57741,7 @@
         <v>1.2303347525533579</v>
       </c>
     </row>
-    <row r="1002" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1002" s="10">
         <v>597</v>
       </c>
@@ -57833,7 +57835,7 @@
         <v>1.1098779422500875</v>
       </c>
     </row>
-    <row r="1004" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1004" s="10">
         <v>598</v>
       </c>
@@ -57930,7 +57932,7 @@
         <v>1.3254801544935828</v>
       </c>
     </row>
-    <row r="1006" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1006" s="10">
         <v>599</v>
       </c>
@@ -58024,7 +58026,7 @@
         <v>0.78519994864354015</v>
       </c>
     </row>
-    <row r="1008" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1008" s="10">
         <v>600</v>
       </c>
@@ -58118,7 +58120,7 @@
         <v>1.4971971191435964</v>
       </c>
     </row>
-    <row r="1010" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1010" s="10">
         <v>601</v>
       </c>
@@ -58212,7 +58214,7 @@
         <v>1.028571871501168</v>
       </c>
     </row>
-    <row r="1012" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1012" s="10">
         <v>602</v>
       </c>
@@ -58306,7 +58308,7 @@
         <v>1.1959185210381378</v>
       </c>
     </row>
-    <row r="1014" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1014" s="10">
         <v>603</v>
       </c>
@@ -58403,7 +58405,7 @@
         <v>1.3079078458098858</v>
       </c>
     </row>
-    <row r="1016" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1016" s="10">
         <v>604</v>
       </c>
@@ -58497,7 +58499,7 @@
         <v>0.95391232165333606</v>
       </c>
     </row>
-    <row r="1018" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1018" s="10">
         <v>605</v>
       </c>
@@ -58591,7 +58593,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1020" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1020" s="10">
         <v>606</v>
       </c>
@@ -58688,7 +58690,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1022" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1022" s="10">
         <v>607</v>
       </c>
@@ -58782,7 +58784,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1024" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1024" s="10">
         <v>608</v>
       </c>
@@ -58879,7 +58881,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1026" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1026" s="10">
         <v>609</v>
       </c>
@@ -58973,7 +58975,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1028" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1028" s="10">
         <v>610</v>
       </c>
@@ -59070,7 +59072,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1030" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1030" s="10">
         <v>611</v>
       </c>
@@ -59164,7 +59166,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1032" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1032" s="10">
         <v>612</v>
       </c>
@@ -59261,7 +59263,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1034" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1034" s="10">
         <v>613</v>
       </c>
@@ -59355,7 +59357,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1036" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1036" s="10">
         <v>614</v>
       </c>
@@ -59449,7 +59451,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1038" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1038" s="10">
         <v>615</v>
       </c>
@@ -59543,7 +59545,7 @@
         <v>0.73885639879897136</v>
       </c>
     </row>
-    <row r="1040" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1040" s="10">
         <v>616</v>
       </c>
@@ -59637,7 +59639,7 @@
         <v>0.58680585215765502</v>
       </c>
     </row>
-    <row r="1042" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1042" s="10">
         <v>617</v>
       </c>
@@ -59731,7 +59733,7 @@
         <v>0.68668576213701071</v>
       </c>
     </row>
-    <row r="1044" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1044" s="10">
         <v>618</v>
       </c>
@@ -59825,7 +59827,7 @@
         <v>0.57806522193156729</v>
       </c>
     </row>
-    <row r="1046" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1046" s="10">
         <v>619</v>
       </c>
@@ -59919,7 +59921,7 @@
         <v>0.44012715117612167</v>
       </c>
     </row>
-    <row r="1048" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1048" s="10">
         <v>620</v>
       </c>
@@ -60013,7 +60015,7 @@
         <v>0.50167575568482214</v>
       </c>
     </row>
-    <row r="1050" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1050" s="10">
         <v>621</v>
       </c>
@@ -60107,7 +60109,7 @@
         <v>0.6331494020022238</v>
       </c>
     </row>
-    <row r="1052" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1052" s="10">
         <v>622</v>
       </c>
@@ -60201,7 +60203,7 @@
         <v>0.54137278462830352</v>
       </c>
     </row>
-    <row r="1054" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1054" s="10">
         <v>623</v>
       </c>
@@ -60295,7 +60297,7 @@
         <v>0.45915623156416663</v>
       </c>
     </row>
-    <row r="1056" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1056" s="10">
         <v>624</v>
       </c>
@@ -60389,7 +60391,7 @@
         <v>0.71918998079027407</v>
       </c>
     </row>
-    <row r="1058" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1058" s="10">
         <v>625</v>
       </c>
@@ -60483,7 +60485,7 @@
         <v>0.92668890042833396</v>
       </c>
     </row>
-    <row r="1060" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1060" s="10">
         <v>626</v>
       </c>
@@ -60577,7 +60579,7 @@
         <v>0.57688159492178459</v>
       </c>
     </row>
-    <row r="1062" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1062" s="10">
         <v>627</v>
       </c>
@@ -60671,7 +60673,7 @@
         <v>0.74814331841418946</v>
       </c>
     </row>
-    <row r="1064" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1064" s="10">
         <v>628</v>
       </c>
@@ -60765,7 +60767,7 @@
         <v>0.41690985213807635</v>
       </c>
     </row>
-    <row r="1066" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1066" s="10">
         <v>629</v>
       </c>
@@ -60859,7 +60861,7 @@
         <v>0.66742906117016132</v>
       </c>
     </row>
-    <row r="1068" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1068" s="10">
         <v>630</v>
       </c>
@@ -60953,7 +60955,7 @@
         <v>0.22042776851414783</v>
       </c>
     </row>
-    <row r="1070" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1070" s="10">
         <v>631</v>
       </c>
@@ -61047,7 +61049,7 @@
         <v>0.72847690040549218</v>
       </c>
     </row>
-    <row r="1072" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1072" s="10">
         <v>632</v>
       </c>
@@ -61141,7 +61143,7 @@
         <v>0.44076448879677388</v>
       </c>
     </row>
-    <row r="1074" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1074" s="10">
         <v>633</v>
       </c>
@@ -61235,7 +61237,7 @@
         <v>0.58216239235004597</v>
       </c>
     </row>
-    <row r="1076" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1076" s="10">
         <v>634</v>
       </c>
@@ -61329,7 +61331,7 @@
         <v>0.6732106238717922</v>
       </c>
     </row>
-    <row r="1078" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1078" s="10">
         <v>635</v>
       </c>
@@ -61423,7 +61425,7 @@
         <v>0.34844158203372311</v>
       </c>
     </row>
-    <row r="1080" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1080" s="10">
         <v>636</v>
       </c>
@@ -61519,7 +61521,7 @@
       </c>
       <c r="T1081"/>
     </row>
-    <row r="1082" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1082" s="10">
         <v>637</v>
       </c>
@@ -61613,7 +61615,7 @@
         <v>0.32595266884785179</v>
       </c>
     </row>
-    <row r="1084" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1084" s="10">
         <v>638</v>
       </c>
@@ -61707,7 +61709,7 @@
         <v>0.61020524765874373</v>
       </c>
     </row>
-    <row r="1086" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1086" s="10">
         <v>639</v>
       </c>
@@ -61801,7 +61803,7 @@
         <v>0.51369412224569266</v>
       </c>
     </row>
-    <row r="1088" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1088" s="10">
         <v>640</v>
       </c>
@@ -61895,7 +61897,7 @@
         <v>0.72419763352397015</v>
       </c>
     </row>
-    <row r="1090" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1090" s="10">
         <v>641</v>
       </c>
@@ -61989,7 +61991,7 @@
         <v>0.53609198720004225</v>
       </c>
     </row>
-    <row r="1092" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1092" s="10">
         <v>642</v>
       </c>
@@ -62083,7 +62085,7 @@
         <v>0.66619991004461776</v>
       </c>
     </row>
-    <row r="1094" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1094" s="10">
         <v>643</v>
       </c>
@@ -62177,7 +62179,7 @@
         <v>0.9108009840277892</v>
       </c>
     </row>
-    <row r="1096" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1096" s="10">
         <v>644</v>
       </c>
@@ -62271,7 +62273,7 @@
         <v>1.1194380065598708</v>
       </c>
     </row>
-    <row r="1098" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1098" s="10">
         <v>645</v>
       </c>
@@ -62365,7 +62367,7 @@
         <v>0.3621898649935068</v>
       </c>
     </row>
-    <row r="1100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1100" s="10">
         <v>646</v>
       </c>
@@ -62459,7 +62461,7 @@
         <v>0.54364899041634718</v>
       </c>
     </row>
-    <row r="1102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1102" s="10">
         <v>647</v>
       </c>
@@ -62553,7 +62555,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1104" s="10">
         <v>648</v>
       </c>
@@ -62647,7 +62649,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1106" s="10">
         <v>649</v>
       </c>
@@ -62741,7 +62743,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1108" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1108" s="10">
         <v>650</v>
       </c>
@@ -62835,7 +62837,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1110" s="10">
         <v>651</v>
       </c>
@@ -62929,7 +62931,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1112" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1112" s="10">
         <v>652</v>
       </c>
@@ -63023,7 +63025,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1114" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1114" s="10">
         <v>653</v>
       </c>
@@ -63117,7 +63119,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1116" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1116" s="10">
         <v>654</v>
       </c>
@@ -63211,7 +63213,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1118" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1118" s="10">
         <v>655</v>
       </c>
@@ -63305,7 +63307,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1120" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1120" s="10">
         <v>656</v>
       </c>
@@ -63399,7 +63401,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1122" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1122" s="10">
         <v>657</v>
       </c>
@@ -63497,7 +63499,7 @@
       <c r="R1123" s="12"/>
       <c r="S1123" s="12"/>
     </row>
-    <row r="1124" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1124" s="10">
         <v>658</v>
       </c>
@@ -63598,7 +63600,7 @@
       <c r="R1125" s="12"/>
       <c r="S1125" s="12"/>
     </row>
-    <row r="1126" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1126" s="10">
         <v>659</v>
       </c>
@@ -63699,7 +63701,7 @@
       <c r="R1127" s="12"/>
       <c r="S1127" s="12"/>
     </row>
-    <row r="1128" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1128" s="10">
         <v>660</v>
       </c>
@@ -63800,7 +63802,7 @@
       <c r="R1129" s="12"/>
       <c r="S1129" s="12"/>
     </row>
-    <row r="1130" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1130" s="10">
         <v>661</v>
       </c>
@@ -63904,7 +63906,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="1132" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1132" s="10">
         <v>662</v>
       </c>
@@ -64005,7 +64007,7 @@
       <c r="R1133" s="12"/>
       <c r="S1133" s="12"/>
     </row>
-    <row r="1134" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1134" s="10">
         <v>663</v>
       </c>
@@ -64103,7 +64105,7 @@
       <c r="R1135" s="12"/>
       <c r="S1135" s="12"/>
     </row>
-    <row r="1136" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1136" s="10">
         <v>664</v>
       </c>
@@ -64204,7 +64206,7 @@
       <c r="R1137" s="12"/>
       <c r="S1137" s="12"/>
     </row>
-    <row r="1138" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1138" s="10">
         <v>665</v>
       </c>
@@ -64305,7 +64307,7 @@
       <c r="R1139" s="12"/>
       <c r="S1139" s="12"/>
     </row>
-    <row r="1140" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1140" s="10">
         <v>666</v>
       </c>
@@ -64409,7 +64411,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="1142" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1142" s="10">
         <v>667</v>
       </c>
@@ -64507,7 +64509,7 @@
       <c r="R1143" s="12"/>
       <c r="S1143" s="12"/>
     </row>
-    <row r="1144" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1144" s="10">
         <v>668</v>
       </c>
@@ -64605,7 +64607,7 @@
       <c r="R1145" s="12"/>
       <c r="S1145" s="12"/>
     </row>
-    <row r="1146" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1146" s="10">
         <v>669</v>
       </c>
@@ -64703,7 +64705,7 @@
       <c r="R1147" s="12"/>
       <c r="S1147" s="12"/>
     </row>
-    <row r="1148" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1148" s="10">
         <v>670</v>
       </c>
@@ -64801,7 +64803,7 @@
       <c r="R1149" s="12"/>
       <c r="S1149" s="12"/>
     </row>
-    <row r="1150" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1150" s="10">
         <v>671</v>
       </c>
@@ -64899,7 +64901,7 @@
       <c r="R1151" s="12"/>
       <c r="S1151" s="12"/>
     </row>
-    <row r="1152" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1152" s="10">
         <v>672</v>
       </c>
@@ -64997,7 +64999,7 @@
       <c r="R1153" s="12"/>
       <c r="S1153" s="12"/>
     </row>
-    <row r="1154" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1154" s="10">
         <v>673</v>
       </c>
@@ -65095,7 +65097,7 @@
       <c r="R1155" s="12"/>
       <c r="S1155" s="12"/>
     </row>
-    <row r="1156" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1156" s="10">
         <v>674</v>
       </c>
@@ -65193,7 +65195,7 @@
       <c r="R1157" s="12"/>
       <c r="S1157" s="12"/>
     </row>
-    <row r="1158" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1158" s="10">
         <v>675</v>
       </c>
@@ -65291,7 +65293,7 @@
       <c r="R1159" s="12"/>
       <c r="S1159" s="12"/>
     </row>
-    <row r="1160" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1160" s="10">
         <v>676</v>
       </c>
@@ -65389,7 +65391,7 @@
       <c r="R1161" s="12"/>
       <c r="S1161" s="12"/>
     </row>
-    <row r="1162" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1162" s="10">
         <v>677</v>
       </c>
@@ -65487,7 +65489,7 @@
       <c r="R1163" s="12"/>
       <c r="S1163" s="12"/>
     </row>
-    <row r="1164" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1164" s="10">
         <v>678</v>
       </c>
@@ -65585,7 +65587,7 @@
       <c r="R1165" s="12"/>
       <c r="S1165" s="12"/>
     </row>
-    <row r="1166" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1166" s="10">
         <v>679</v>
       </c>
@@ -65686,7 +65688,7 @@
       <c r="R1167" s="12"/>
       <c r="S1167" s="12"/>
     </row>
-    <row r="1168" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1168" s="10">
         <v>680</v>
       </c>
@@ -65784,7 +65786,7 @@
       <c r="R1169" s="12"/>
       <c r="S1169" s="12"/>
     </row>
-    <row r="1170" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1170" s="10">
         <v>681</v>
       </c>
@@ -65882,7 +65884,7 @@
       <c r="R1171" s="12"/>
       <c r="S1171" s="12"/>
     </row>
-    <row r="1172" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1172" s="10">
         <v>682</v>
       </c>
@@ -65980,7 +65982,7 @@
       <c r="R1173" s="12"/>
       <c r="S1173" s="12"/>
     </row>
-    <row r="1174" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1174" s="10">
         <v>683</v>
       </c>
@@ -66078,7 +66080,7 @@
       <c r="R1175" s="12"/>
       <c r="S1175" s="12"/>
     </row>
-    <row r="1176" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1176" s="10">
         <v>684</v>
       </c>
@@ -66176,7 +66178,7 @@
       <c r="R1177" s="12"/>
       <c r="S1177" s="12"/>
     </row>
-    <row r="1178" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1178" s="10">
         <v>685</v>
       </c>
@@ -66274,7 +66276,7 @@
       <c r="R1179" s="12"/>
       <c r="S1179" s="12"/>
     </row>
-    <row r="1180" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1180" s="10">
         <v>686</v>
       </c>
@@ -66372,7 +66374,7 @@
       <c r="R1181" s="12"/>
       <c r="S1181" s="12"/>
     </row>
-    <row r="1182" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1182" s="10">
         <v>687</v>
       </c>
@@ -66466,7 +66468,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1184" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1184" s="10">
         <v>688</v>
       </c>
@@ -66560,7 +66562,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1186" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1186" s="10">
         <v>689</v>
       </c>
@@ -66654,7 +66656,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1188" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1188" s="10">
         <v>690</v>
       </c>
@@ -66748,7 +66750,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1190" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1190" s="10">
         <v>691</v>
       </c>
@@ -66842,7 +66844,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1192" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1192" s="10">
         <v>692</v>
       </c>
@@ -66936,7 +66938,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1194" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1194" s="10">
         <v>693</v>
       </c>
@@ -67030,7 +67032,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1196" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1196" s="10">
         <v>694</v>
       </c>
@@ -67124,7 +67126,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1198" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1198" s="10">
         <v>695</v>
       </c>
@@ -67218,7 +67220,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1200" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1200" s="10">
         <v>696</v>
       </c>
@@ -67312,14 +67314,264 @@
         <v>1260</v>
       </c>
     </row>
+    <row r="1202" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1202" s="10">
+        <v>697</v>
+      </c>
+      <c r="B1202" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1202" s="10" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D1202" s="10">
+        <v>1</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1202" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1202">
+        <v>0</v>
+      </c>
+      <c r="L1202">
+        <v>0</v>
+      </c>
+      <c r="M1202">
+        <v>0</v>
+      </c>
+      <c r="Q1202" s="12">
+        <v>1.22718463031</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1203" s="10">
+        <v>698</v>
+      </c>
+      <c r="B1203" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1203" s="10" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D1203" s="10">
+        <v>2</v>
+      </c>
+      <c r="F1203" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1203" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1203">
+        <v>0</v>
+      </c>
+      <c r="L1203">
+        <v>0</v>
+      </c>
+      <c r="M1203">
+        <v>0</v>
+      </c>
+      <c r="Q1203" s="12">
+        <v>1.22718463031</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1204" s="10">
+        <v>699</v>
+      </c>
+      <c r="B1204" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1204" s="10" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D1204" s="10">
+        <v>3</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1204" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1204">
+        <v>0</v>
+      </c>
+      <c r="L1204">
+        <v>0</v>
+      </c>
+      <c r="M1204">
+        <v>0</v>
+      </c>
+      <c r="Q1204" s="12">
+        <v>1.22718463031</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1205" s="10">
+        <v>700</v>
+      </c>
+      <c r="B1205" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1205" s="10" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D1205" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1205" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1205">
+        <v>0</v>
+      </c>
+      <c r="L1205">
+        <v>0</v>
+      </c>
+      <c r="M1205">
+        <v>0</v>
+      </c>
+      <c r="Q1205" s="12">
+        <v>1.22718463031</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1206" s="10">
+        <v>701</v>
+      </c>
+      <c r="B1206" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1206" s="10" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D1206" s="10">
+        <v>5</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1206" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1206">
+        <v>0</v>
+      </c>
+      <c r="L1206">
+        <v>0</v>
+      </c>
+      <c r="M1206">
+        <v>0</v>
+      </c>
+      <c r="Q1206" s="12">
+        <v>1.22718463031</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1207" s="10">
+        <v>702</v>
+      </c>
+      <c r="B1207" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1207" s="10" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D1207" s="10">
+        <v>6</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1207" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1207">
+        <v>0</v>
+      </c>
+      <c r="L1207">
+        <v>1</v>
+      </c>
+      <c r="M1207">
+        <v>0</v>
+      </c>
+      <c r="Q1207" s="12">
+        <v>1.22718463031</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1208" s="10">
+        <v>703</v>
+      </c>
+      <c r="B1208" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1208" s="10" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D1208" s="10">
+        <v>7</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1208" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1208">
+        <v>0</v>
+      </c>
+      <c r="L1208">
+        <v>0</v>
+      </c>
+      <c r="M1208">
+        <v>0</v>
+      </c>
+      <c r="Q1208" s="12">
+        <v>1.22718463031</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1209" s="10">
+        <v>704</v>
+      </c>
+      <c r="B1209" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1209" s="10" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D1209" s="10">
+        <v>8</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1209" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1209">
+        <v>0</v>
+      </c>
+      <c r="L1209">
+        <v>0</v>
+      </c>
+      <c r="M1209">
+        <v>0</v>
+      </c>
+      <c r="Q1209" s="12">
+        <v>1.22718463031</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U1201" xr:uid="{24D2D788-1884-0345-88A7-690DA209C732}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="C"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:U1201" xr:uid="{24D2D788-1884-0345-88A7-690DA209C732}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>